--- a/2_system/model/results.xlsx
+++ b/2_system/model/results.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="match_conditions" sheetId="1" r:id="rId1"/>
+    <sheet name="clean_noisy" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,15 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
   <si>
     <t>SS</t>
   </si>
   <si>
     <t>SNR</t>
-  </si>
-  <si>
-    <t>f1 score validation</t>
   </si>
   <si>
     <t>confusion matrix</t>
@@ -157,24 +156,190 @@
  [108 786]]</t>
   </si>
   <si>
-    <t>Tiene sentido que los resultados sean parecidos porque al final los dos estan utilizando el mismo vector de VAD frames, solo diferencia si esos frames que no se eliminan, se ven más o menos afectados por el ruido, que vemos tanto por cambiar la SNR como por usar o no el SS que no le afecta</t>
-  </si>
-  <si>
     <t>SS = True</t>
   </si>
   <si>
     <t>SS = False</t>
+  </si>
+  <si>
+    <t>GridSearch Parameters</t>
+  </si>
+  <si>
+    <t>p1 = ['logistic', 'relu', 'tanh']
+p2 = np.logspace(-4,-1, 10)
+p3 = [(100,), (150,), (200,), (250,), (300,)]
+cv = 5</t>
+  </si>
+  <si>
+    <t>20 dB</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>SNR_train</t>
+  </si>
+  <si>
+    <t>Best Parameters</t>
+  </si>
+  <si>
+    <t>Best Score Training</t>
+  </si>
+  <si>
+    <t>{'activation': 'logistic', 'alpha': 0.004641588833612777, 'hidden_layer_sizes': (250,)}</t>
+  </si>
+  <si>
+    <t>[[1955   13]
+ [  32 4370]]</t>
+  </si>
+  <si>
+    <t>[[0.99339431 0.00660569]
+ [0.00726942 0.99273058]]</t>
+  </si>
+  <si>
+    <t>[[1650  325]
+ [ 437 3876]]</t>
+  </si>
+  <si>
+    <t>[[0.83544304 0.16455696]
+ [0.10132159 0.89867841]]</t>
+  </si>
+  <si>
+    <t>[[1420  573]
+ [ 639 3823]]</t>
+  </si>
+  <si>
+    <t>[[0.71249373 0.28750627]
+ [0.14320932 0.85679068]]</t>
+  </si>
+  <si>
+    <t>[[1045  956]
+ [ 816 3869]]</t>
+  </si>
+  <si>
+    <t>[[0.52223888 0.47776112]
+ [0.17417289 0.82582711]]</t>
+  </si>
+  <si>
+    <t>[[ 725 1249]
+ [ 578 4255]]</t>
+  </si>
+  <si>
+    <t>[[0.36727457 0.63272543]
+ [0.11959445 0.88040555]]</t>
+  </si>
+  <si>
+    <t>[[ 297 1659]
+ [ 345 4540]]</t>
+  </si>
+  <si>
+    <t>[[0.15184049 0.84815951]
+ [0.07062436 0.92937564]]</t>
+  </si>
+  <si>
+    <t>Predicted label</t>
+  </si>
+  <si>
+    <t>True Label</t>
+  </si>
+  <si>
+    <t>Neutral (0)</t>
+  </si>
+  <si>
+    <t>Stress (1)</t>
+  </si>
+  <si>
+    <t>False positive (Fp)</t>
+  </si>
+  <si>
+    <t>True positive (Tp)</t>
+  </si>
+  <si>
+    <t>True negative (Tn)</t>
+  </si>
+  <si>
+    <t>False negative (Fn)</t>
+  </si>
+  <si>
+    <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (100,)}</t>
+  </si>
+  <si>
+    <t>[[1968    0]
+ [   0 4402]]</t>
+  </si>
+  <si>
+    <t>[[1. 0.]
+ [0. 1.]]</t>
+  </si>
+  <si>
+    <t>[[1646  329]
+ [ 482 3831]]</t>
+  </si>
+  <si>
+    <t>[[0.83341772 0.16658228]
+ [0.11175516 0.88824484]]</t>
+  </si>
+  <si>
+    <t>[[1394  599]
+ [ 963 3499]]</t>
+  </si>
+  <si>
+    <t>[[0.69944807 0.30055193]
+ [0.2158225  0.7841775 ]]</t>
+  </si>
+  <si>
+    <t>[[1164  837]
+ [1391 3294]]</t>
+  </si>
+  <si>
+    <t>[[0.58170915 0.41829085]
+ [0.29690502 0.70309498]]</t>
+  </si>
+  <si>
+    <t>[[ 617 1357]
+ [ 789 4044]]</t>
+  </si>
+  <si>
+    <t>[[0.31256332 0.68743668]
+ [0.16325264 0.83674736]]</t>
+  </si>
+  <si>
+    <t>[[ 175 1781]
+ [ 285 4600]]</t>
+  </si>
+  <si>
+    <t>[[0.0894683  0.9105317 ]
+ [0.05834186 0.94165814]]</t>
+  </si>
+  <si>
+    <t>f1 score validation with SS</t>
+  </si>
+  <si>
+    <t>f1 score validation without SS</t>
+  </si>
+  <si>
+    <t>True positive Neutral with SS</t>
+  </si>
+  <si>
+    <t>True positive Stress with SS</t>
+  </si>
+  <si>
+    <t>True positive Neutral without SS</t>
+  </si>
+  <si>
+    <t>True positive Stress without SS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,16 +362,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -223,21 +402,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,43 +526,157 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="36">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -320,6 +700,479 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="0"/>
+        </left>
+        <right style="thick">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="double">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="0"/>
+        </left>
+        <right style="thick">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="double">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -355,11 +1208,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -369,13 +1222,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>System</a:t>
+              <a:t>Comparison F-Score match conditions</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> results</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -393,11 +1241,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -417,180 +1265,204 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$11</c:f>
+              <c:f>match_conditions!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SS = False</c:v>
+                  <c:v>f1 score validation with SS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$C$11:$C$17</c:f>
+              <c:f>match_conditions!$C$17:$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>original</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5</c:v>
+                  <c:v>original</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$11:$D$17</c:f>
+              <c:f>match_conditions!$D$8:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.91598599766627697</c:v>
+                  <c:v>0.88672086720867205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.910776361529548</c:v>
+                  <c:v>0.90391841116478799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91359516616314196</c:v>
+                  <c:v>0.90016731734523103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90813341135166703</c:v>
+                  <c:v>0.91355140186915895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90038953811908695</c:v>
+                  <c:v>0.89493201483312701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90225563909774398</c:v>
+                  <c:v>0.90812720848056505</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90557939914163099</c:v>
+                  <c:v>0.90223792697290905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5D07-4194-8022-6893F0A1480C}"/>
+              <c16:uniqueId val="{00000002-C034-4BB3-81B8-72A01B93C045}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$4</c:f>
+              <c:f>match_conditions!$D$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SS = True</c:v>
+                  <c:v>f1 score validation without SS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$C$11:$C$17</c:f>
+              <c:f>match_conditions!$C$17:$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>original</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5</c:v>
+                  <c:v>original</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$4:$D$10</c:f>
+              <c:f>match_conditions!$D$17:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.90223792697290905</c:v>
+                  <c:v>0.90557939914163099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90812720848056505</c:v>
+                  <c:v>0.90225563909774398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89493201483312701</c:v>
+                  <c:v>0.90038953811908695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91355140186915895</c:v>
+                  <c:v>0.90813341135166703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90016731734523103</c:v>
+                  <c:v>0.91359516616314196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90391841116478799</c:v>
+                  <c:v>0.910776361529548</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88672086720867205</c:v>
+                  <c:v>0.91598599766627697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D07-4194-8022-6893F0A1480C}"/>
+              <c16:uniqueId val="{00000003-C034-4BB3-81B8-72A01B93C045}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -602,73 +1474,514 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="794656048"/>
-        <c:axId val="794658128"/>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="1130741104"/>
+        <c:axId val="1130742352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="794656048"/>
+        <c:axId val="1130741104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-ES"/>
-                  <a:t>SNR</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1130742352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1130742352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1130741104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparison F-Score match conditions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>match_conditions!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1 score validation with SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>match_conditions!$C$17:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>original</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>match_conditions!$D$8:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.88672086720867205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90391841116478799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90016731734523103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91355140186915895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89493201483312701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90812720848056505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90223792697290905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E32-49F8-A8B3-4DC778922AEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>match_conditions!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1 score validation without SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>match_conditions!$C$17:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>original</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>match_conditions!$D$17:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.90557939914163099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90225563909774398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90038953811908695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90813341135166703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91359516616314196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.910776361529548</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91598599766627697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E32-49F8-A8B3-4DC778922AEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1130741104"/>
+        <c:axId val="1130742352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1130741104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -678,6 +1991,73 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1130742352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1130742352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -706,19 +2086,647 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="794658128"/>
+        <c:crossAx val="1130741104"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparison F-Score with and without Spectral Substraction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>clean_noisy!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1 score validation with SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>clean_noisy!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>clean_noisy!$C$14:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.81919884518224395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82325626390635498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81366982124079901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.863174531496952</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91050035236081694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.994877632327831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-6015-412F-9C89-ECE2490A1498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>clean_noisy!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1 score validation without SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>clean_noisy!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>clean_noisy!$C$31:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.81661636783241598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79030682040257905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.747277676950998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81752336448598095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90428419686061601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-6015-412F-9C89-ECE2490A1498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>clean_noisy!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1 score validation with SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>clean_noisy!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>clean_noisy!$C$14:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.81919884518224395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82325626390635498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81366982124079901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.863174531496952</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91050035236081694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.994877632327831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-6015-412F-9C89-ECE2490A1498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>clean_noisy!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1 score validation without SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>clean_noisy!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>clean_noisy!$C$31:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.81661636783241598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79030682040257905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.747277676950998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81752336448598095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90428419686061601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-6015-412F-9C89-ECE2490A1498}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1219840384"/>
+        <c:axId val="1219828320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1219840384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219828320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="794658128"/>
+        <c:axId val="1219828320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -726,8 +2734,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -735,77 +2744,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-ES"/>
-                  <a:t>F</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="es-ES" baseline="0"/>
-                  <a:t> SCORE</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -829,7 +2781,1069 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="794656048"/>
+        <c:crossAx val="1219840384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparison True Positives</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>clean_noisy!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>True positive Neutral with SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>clean_noisy!$F$14:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.15184048999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36727457000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52223887999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71249373000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83544304000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99339431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A93-4F60-9E6C-F3AFD6C1823A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>clean_noisy!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>True positive Stress with SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>clean_noisy!$G$14:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.92937563999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88040554999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82582710999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85679068000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89867841000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99273058000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5A93-4F60-9E6C-F3AFD6C1823A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>clean_noisy!$F$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>True positive Neutral without SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>clean_noisy!$F$31:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.9468300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31256331999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58170915000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69944806999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83341772000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5A93-4F60-9E6C-F3AFD6C1823A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>clean_noisy!$G$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>True positive Stress without SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>clean_noisy!$G$31:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.94165814000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83674736000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70309498000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78417749999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88824484000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5A93-4F60-9E6C-F3AFD6C1823A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1219840384"/>
+        <c:axId val="1219828320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1219840384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219828320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1219828320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219840384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparison F-Score with and without Spectral Substraction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>clean_noisy!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1 score validation with SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>clean_noisy!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>clean_noisy!$C$14:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.81919884518224395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82325626390635498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81366982124079901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.863174531496952</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91050035236081694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.994877632327831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C271-4C81-9C77-3175C9A100EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>clean_noisy!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1 score validation without SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>clean_noisy!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>clean_noisy!$C$31:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.81661636783241598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79030682040257905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.747277676950998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81752336448598095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90428419686061601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C271-4C81-9C77-3175C9A100EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="1219840384"/>
+        <c:axId val="1219828320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1219840384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219828320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1219828320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219840384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -842,7 +3856,666 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparison True Positives</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>clean_noisy!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>True positive Neutral with SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>clean_noisy!$B$31:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>clean_noisy!$F$14:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.15184048999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36727457000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52223887999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71249373000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83544304000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99339431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88C4-4C6F-9F11-85662164D053}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>clean_noisy!$F$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>True positive Neutral without SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>clean_noisy!$B$31:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>clean_noisy!$F$31:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.9468300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31256331999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58170915000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69944806999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83341772000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-88C4-4C6F-9F11-85662164D053}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>clean_noisy!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>True positive Stress with SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>clean_noisy!$B$31:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>clean_noisy!$G$14:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.92937563999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88040554999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82582710999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85679068000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89867841000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99273058000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88C4-4C6F-9F11-85662164D053}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>clean_noisy!$G$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>True positive Stress without SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent4"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent4"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>clean_noisy!$B$31:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>clean_noisy!$G$31:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.94165814000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83674736000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70309498000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78417749999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88824484000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-88C4-4C6F-9F11-85662164D053}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="1219840384"/>
+        <c:axId val="1219828320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1219840384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219828320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1219828320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219840384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -950,8 +4623,208 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -962,7 +4835,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -975,6 +4848,29 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -986,29 +4882,6 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1052,35 +4925,564 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1092,30 +5494,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1137,15 +5543,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1160,10 +5564,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -1171,67 +5611,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1244,54 +5745,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1301,8 +5765,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1312,66 +5776,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1380,14 +5785,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1401,7 +5806,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1417,8 +5822,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1434,6 +5839,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1441,14 +5857,2088 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
       <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1457,20 +7947,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1485,18 +7975,241 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4084</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>508907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>299631</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1" title="F-Score"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>911677</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>324395</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>349703</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2" title="F-Score"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533672</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>367393</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3" title="F-Score"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>565243</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>349704</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4" title="F-Score"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B3:F17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B3:F17"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="SS" dataDxfId="4"/>
-    <tableColumn id="2" name="SNR" dataDxfId="2"/>
-    <tableColumn id="3" name="f1 score validation" dataDxfId="0"/>
-    <tableColumn id="4" name="confusion matrix" dataDxfId="1"/>
-    <tableColumn id="5" name="confusion matrix norm" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B7:H14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B7:H14"/>
+  <sortState ref="B8:H14">
+    <sortCondition ref="C7:C14"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="SS" dataDxfId="35"/>
+    <tableColumn id="2" name="SNR" dataDxfId="14"/>
+    <tableColumn id="3" name="f1 score validation with SS" dataDxfId="12"/>
+    <tableColumn id="4" name="confusion matrix" dataDxfId="13"/>
+    <tableColumn id="5" name="confusion matrix norm" dataDxfId="5"/>
+    <tableColumn id="6" name="True positive Neutral with SS" dataDxfId="4"/>
+    <tableColumn id="7" name="True positive Stress with SS" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="B16:H23" totalsRowShown="0">
+  <autoFilter ref="B16:H23"/>
+  <sortState ref="B17:H23">
+    <sortCondition ref="C16:C23"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="SS" dataDxfId="9"/>
+    <tableColumn id="2" name="SNR" dataDxfId="8"/>
+    <tableColumn id="3" name="f1 score validation without SS" dataDxfId="7"/>
+    <tableColumn id="4" name="confusion matrix" dataDxfId="6"/>
+    <tableColumn id="5" name="confusion matrix norm" dataDxfId="2"/>
+    <tableColumn id="6" name="True positive Neutral without SS" dataDxfId="1"/>
+    <tableColumn id="7" name="True positive Stress without SS" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B13:G19" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="33" tableBorderDxfId="34" totalsRowBorderDxfId="32">
+  <autoFilter ref="B13:G19"/>
+  <sortState ref="B14:G19">
+    <sortCondition ref="B13:B19"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="SNR" dataDxfId="18"/>
+    <tableColumn id="2" name="f1 score validation with SS" dataDxfId="16"/>
+    <tableColumn id="3" name="confusion matrix" dataDxfId="31"/>
+    <tableColumn id="4" name="confusion matrix norm" dataDxfId="30"/>
+    <tableColumn id="5" name="True positive Neutral with SS" dataDxfId="29"/>
+    <tableColumn id="6" name="True positive Stress with SS" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B30:G36" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+  <autoFilter ref="B30:G36"/>
+  <sortState ref="B31:G36">
+    <sortCondition ref="B30:B36"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="SNR" dataDxfId="17"/>
+    <tableColumn id="2" name="f1 score validation without SS" dataDxfId="15"/>
+    <tableColumn id="3" name="confusion matrix" dataDxfId="23"/>
+    <tableColumn id="4" name="confusion matrix norm" dataDxfId="22"/>
+    <tableColumn id="5" name="True positive Neutral without SS" dataDxfId="21"/>
+    <tableColumn id="6" name="True positive Stress without SS" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1765,10 +8478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F21"/>
+  <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,294 +8489,917 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="15.85546875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:8" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
+      <c r="C8" s="31">
+        <v>-5</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0.88672086720867205</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.95076923000000002</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.83554647999999998</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="9" t="s">
+    <row r="9" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0.90391841116478799</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.95104166999999995</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.86447638999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5</v>
+      </c>
+      <c r="D10" s="34">
+        <v>0.90016731734523103</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.95586652000000005</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.85396824999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8">
+        <v>10</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0.91355140186915895</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.95211581000000001</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.88162344999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8">
+        <v>15</v>
+      </c>
+      <c r="D12" s="34">
+        <v>0.89493201483312701</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.94977168999999995</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.85176470999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8">
+        <v>20</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0.90812720848056505</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.96193772</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.86241610999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="38">
+        <v>0.90223792697290905</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0.95011338000000001</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.86261261</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="14">
-        <v>0.90223792697290905</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>9</v>
+      <c r="C17" s="8">
+        <v>-5</v>
+      </c>
+      <c r="D17" s="34">
+        <v>0.90557939914163099</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.95794871999999998</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.86210419000000005</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+    <row r="18" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="34">
+        <v>0.90225563909774398</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.86242300000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8">
         <v>5</v>
       </c>
-      <c r="C5" s="9">
+      <c r="D19" s="34">
+        <v>0.90038953811908695</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.95371366999999996</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.85608466000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="8">
+        <v>10</v>
+      </c>
+      <c r="D20" s="34">
+        <v>0.90813341135166703</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="32">
+        <v>0.94877506</v>
+      </c>
+      <c r="H20" s="32">
+        <v>0.87485908000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="31">
+        <v>15</v>
+      </c>
+      <c r="D21" s="36">
+        <v>0.91359516616314196</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.94406393</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.88941176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8">
         <v>20</v>
       </c>
-      <c r="D5" s="11">
-        <v>0.90812720848056505</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
+      <c r="D22" s="34">
+        <v>0.910776361529548</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.94694347999999995</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.87919462999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+    <row r="23" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9">
-        <v>15</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.89493201483312701</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
+      <c r="D23" s="34">
+        <v>0.91598599766627697</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.95351474000000003</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.88400900999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.91355140186915895</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="35"/>
     </row>
-    <row r="8" spans="2:6" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="9">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.90016731734523103</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="35"/>
     </row>
-    <row r="9" spans="2:6" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0.90391841116478799</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="35"/>
     </row>
-    <row r="10" spans="2:6" s="6" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10">
-        <v>-5</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.88672086720867205</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>21</v>
-      </c>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
     </row>
-    <row r="11" spans="2:6" s="6" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0.91598599766627697</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>23</v>
-      </c>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
     </row>
-    <row r="12" spans="2:6" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="9">
-        <v>20</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0.910776361529548</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>34</v>
-      </c>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
     </row>
-    <row r="13" spans="2:6" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="9">
-        <v>15</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.91359516616314196</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9">
-        <v>10</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0.90813341135166703</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="9">
-        <v>5</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0.90038953811908695</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0.90225563909774398</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="9">
-        <v>-5</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0.90557939914163099</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B19:F19"/>
+  <mergeCells count="2">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="13"/>
+    <col min="2" max="2" width="14.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="36" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="13" customWidth="1"/>
+    <col min="8" max="9" width="13.7109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="13"/>
+    <col min="11" max="11" width="13.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="13"/>
+    <col min="13" max="13" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="27"/>
+      <c r="C5" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.76694014801169796</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29">
+        <v>-5</v>
+      </c>
+      <c r="C14" s="30">
+        <v>0.81919884518224395</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.15184048999999999</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0.92937563999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="29">
+        <v>0</v>
+      </c>
+      <c r="C15" s="30">
+        <v>0.82325626390635498</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.36727457000000002</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.88040554999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="29">
+        <v>5</v>
+      </c>
+      <c r="C16" s="30">
+        <v>0.81366982124079901</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.52223887999999996</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.82582710999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="29">
+        <v>10</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0.863174531496952</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.71249373000000005</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.85679068000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="29">
+        <v>15</v>
+      </c>
+      <c r="C18" s="30">
+        <v>0.91050035236081694</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.83544304000000003</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0.89867841000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="29">
+        <v>20</v>
+      </c>
+      <c r="C19" s="30">
+        <v>0.994877632327831</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.99339431</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.99273058000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.71754134674367298</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="29">
+        <v>-5</v>
+      </c>
+      <c r="C31" s="30">
+        <v>0.81661636783241598</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="11">
+        <v>8.9468300000000001E-2</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.94165814000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="29">
+        <v>0</v>
+      </c>
+      <c r="C32" s="30">
+        <v>0.79030682040257905</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.31256331999999998</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0.83674736000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="29">
+        <v>5</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0.747277676950998</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0.58170915000000001</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0.70309498000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="29">
+        <v>10</v>
+      </c>
+      <c r="C34" s="30">
+        <v>0.81752336448598095</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.69944806999999998</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0.78417749999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="29">
+        <v>15</v>
+      </c>
+      <c r="C35" s="30">
+        <v>0.90428419686061601</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0.83341772000000003</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0.88824484000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="29">
+        <v>20</v>
+      </c>
+      <c r="C36" s="30">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="11">
+        <v>1</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/2_system/model/results.xlsx
+++ b/2_system/model/results.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="match_conditions" sheetId="1" r:id="rId1"/>
-    <sheet name="clean_noisy" sheetId="3" r:id="rId2"/>
+    <sheet name="clean_noisy (f1)" sheetId="3" r:id="rId2"/>
+    <sheet name="clean_noisy (accuracy)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="124">
   <si>
     <t>SS</t>
   </si>
@@ -329,17 +329,151 @@
   <si>
     <t>True positive Stress without SS</t>
   </si>
+  <si>
+    <t>Tp</t>
+  </si>
+  <si>
+    <t>Tn</t>
+  </si>
+  <si>
+    <t>Fp</t>
+  </si>
+  <si>
+    <t>Fn</t>
+  </si>
+  <si>
+    <t>Accuracy with SS</t>
+  </si>
+  <si>
+    <t>Accuracy without SS</t>
+  </si>
+  <si>
+    <t>accuracy with SS</t>
+  </si>
+  <si>
+    <t>accuracy without SS</t>
+  </si>
+  <si>
+    <t>p1 = ['logistic', 'relu', 'tanh']
+p2 = np.logspace(-3,-1, 5)
+p3 = [(100,), (150,), (200,), (250,)]</t>
+  </si>
+  <si>
+    <t>Best Params :  {'activation': 'logistic', 'alpha': 0.01, 'hidden_layer_sizes': (250,)}</t>
+  </si>
+  <si>
+    <t>Elapsed time</t>
+  </si>
+  <si>
+    <t>{'activation': 'tanh', 'alpha': 0.001, 'hidden_layer_sizes': (250,)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:40:48</t>
+  </si>
+  <si>
+    <t>[[1698  277]
+ [ 394 3919]]</t>
+  </si>
+  <si>
+    <t>[[1480  513]
+ [ 967 3495]]</t>
+  </si>
+  <si>
+    <t>[[1285  716]
+ [1718 2967]]</t>
+  </si>
+  <si>
+    <t>[[ 909 1065]
+ [1611 3222]]</t>
+  </si>
+  <si>
+    <t>[[ 590 1366]
+ [1538 3347]]</t>
+  </si>
+  <si>
+    <t>[[1940   28]
+ [ 199 4203]]</t>
+  </si>
+  <si>
+    <t>[[1688  287]
+ [ 529 3784]]</t>
+  </si>
+  <si>
+    <t>[[1503  490]
+ [ 679 3783]]</t>
+  </si>
+  <si>
+    <t>[[1202  799]
+ [ 946 3739]]</t>
+  </si>
+  <si>
+    <t>[[ 830 1144]
+ [ 692 4141]]</t>
+  </si>
+  <si>
+    <t>[[ 352 1604]
+ [ 330 4555]]</t>
+  </si>
+  <si>
+    <t>Tn with SS</t>
+  </si>
+  <si>
+    <t>Fp with SS</t>
+  </si>
+  <si>
+    <t>Fn with SS</t>
+  </si>
+  <si>
+    <t>Tp with SS</t>
+  </si>
+  <si>
+    <t>Tn without SS</t>
+  </si>
+  <si>
+    <t>Fp without SS</t>
+  </si>
+  <si>
+    <t>Fn without SS</t>
+  </si>
+  <si>
+    <t>Tp without SS</t>
+  </si>
+  <si>
+    <t>Fp with SS relativo</t>
+  </si>
+  <si>
+    <t>Tn with SS relativo</t>
+  </si>
+  <si>
+    <t>Fn with SS relativo</t>
+  </si>
+  <si>
+    <t>Tp with SS relativo</t>
+  </si>
+  <si>
+    <t>Tn without SS relativo</t>
+  </si>
+  <si>
+    <t>Fp without SS relativo</t>
+  </si>
+  <si>
+    <t>Fn without SS relativo</t>
+  </si>
+  <si>
+    <t>Tp without SS relativo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +504,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -385,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -492,12 +639,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -538,12 +724,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,9 +739,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,9 +752,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -607,46 +781,54 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000000"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="76">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -660,59 +842,16 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -730,7 +869,61 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -757,7 +950,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -766,6 +959,285 @@
           <color theme="4"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -795,6 +1267,208 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF5B9BD5"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF5B9BD5"/>
+        </top>
+        <bottom style="double">
+          <color rgb="FF5B9BD5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF5B9BD5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="0"/>
+        </left>
+        <right style="thick">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -818,6 +1492,30 @@
           <color theme="4"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF5B9BD5"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF5B9BD5"/>
+        </top>
+        <bottom style="double">
+          <color rgb="FF5B9BD5"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF5B9BD5"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -958,6 +1656,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -971,6 +1670,199 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4"/>
@@ -979,17 +1871,17 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="double">
           <color theme="4"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="double">
+        <bottom style="thin">
           <color theme="4"/>
         </bottom>
       </border>
@@ -1132,6 +2024,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1145,17 +2038,203 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1169,10 +2248,146 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color theme="0"/>
+        </left>
+        <right style="thick">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1227,7 +2442,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1595,7 +2809,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1702,7 +2915,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2100,7 +3312,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2207,7 +3418,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2248,7 +3458,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>clean_noisy!$C$13</c:f>
+              <c:f>'clean_noisy (f1)'!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2284,7 +3494,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>clean_noisy!$B$14:$B$19</c:f>
+              <c:f>'clean_noisy (f1)'!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2311,7 +3521,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>clean_noisy!$C$14:$C$19</c:f>
+              <c:f>'clean_noisy (f1)'!$C$14:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2348,7 +3558,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>clean_noisy!$C$30</c:f>
+              <c:f>'clean_noisy (f1)'!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2382,7 +3592,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>clean_noisy!$B$14:$B$19</c:f>
+              <c:f>'clean_noisy (f1)'!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2409,7 +3619,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>clean_noisy!$C$31:$C$36</c:f>
+              <c:f>'clean_noisy (f1)'!$C$31:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2446,7 +3656,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>clean_noisy!$C$13</c:f>
+              <c:f>'clean_noisy (f1)'!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2482,7 +3692,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>clean_noisy!$B$14:$B$19</c:f>
+              <c:f>'clean_noisy (f1)'!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2509,7 +3719,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>clean_noisy!$C$14:$C$19</c:f>
+              <c:f>'clean_noisy (f1)'!$C$14:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2546,7 +3756,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>clean_noisy!$C$30</c:f>
+              <c:f>'clean_noisy (f1)'!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2582,7 +3792,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>clean_noisy!$B$14:$B$19</c:f>
+              <c:f>'clean_noisy (f1)'!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2609,7 +3819,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>clean_noisy!$C$31:$C$36</c:f>
+              <c:f>'clean_noisy (f1)'!$C$31:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2803,7 +4013,6 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2910,7 +4119,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2951,7 +4159,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>clean_noisy!$F$13</c:f>
+              <c:f>'clean_noisy (f1)'!$K$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2987,7 +4195,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>clean_noisy!$F$14:$F$19</c:f>
+              <c:f>'clean_noisy (f1)'!$K$14:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3024,7 +4232,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>clean_noisy!$G$13</c:f>
+              <c:f>'clean_noisy (f1)'!$L$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3060,7 +4268,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>clean_noisy!$G$14:$G$19</c:f>
+              <c:f>'clean_noisy (f1)'!$L$14:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3097,7 +4305,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>clean_noisy!$F$30</c:f>
+              <c:f>'clean_noisy (f1)'!$K$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3133,7 +4341,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>clean_noisy!$F$31:$F$36</c:f>
+              <c:f>'clean_noisy (f1)'!$K$31:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3170,7 +4378,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>clean_noisy!$G$30</c:f>
+              <c:f>'clean_noisy (f1)'!$L$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3204,7 +4412,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>clean_noisy!$G$31:$G$36</c:f>
+              <c:f>'clean_noisy (f1)'!$L$31:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3390,7 +4598,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3497,7 +4704,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3539,7 +4745,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>clean_noisy!$C$13</c:f>
+              <c:f>'clean_noisy (f1)'!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3572,7 +4778,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>clean_noisy!$B$14:$B$19</c:f>
+              <c:f>'clean_noisy (f1)'!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3599,7 +4805,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>clean_noisy!$C$14:$C$19</c:f>
+              <c:f>'clean_noisy (f1)'!$C$14:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3635,7 +4841,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>clean_noisy!$C$30</c:f>
+              <c:f>'clean_noisy (f1)'!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3668,7 +4874,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>clean_noisy!$B$14:$B$19</c:f>
+              <c:f>'clean_noisy (f1)'!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3695,7 +4901,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>clean_noisy!$C$31:$C$36</c:f>
+              <c:f>'clean_noisy (f1)'!$C$31:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3857,7 +5063,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3964,7 +5169,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4006,7 +5210,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>clean_noisy!$F$13</c:f>
+              <c:f>'clean_noisy (f1)'!$K$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4039,7 +5243,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>clean_noisy!$B$31:$B$36</c:f>
+              <c:f>'clean_noisy (f1)'!$B$31:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4066,7 +5270,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>clean_noisy!$F$14:$F$19</c:f>
+              <c:f>'clean_noisy (f1)'!$K$14:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4102,7 +5306,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>clean_noisy!$F$30</c:f>
+              <c:f>'clean_noisy (f1)'!$K$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4135,7 +5339,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>clean_noisy!$B$31:$B$36</c:f>
+              <c:f>'clean_noisy (f1)'!$B$31:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4162,7 +5366,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>clean_noisy!$F$31:$F$36</c:f>
+              <c:f>'clean_noisy (f1)'!$K$31:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4198,7 +5402,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>clean_noisy!$G$13</c:f>
+              <c:f>'clean_noisy (f1)'!$L$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4231,7 +5435,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>clean_noisy!$B$31:$B$36</c:f>
+              <c:f>'clean_noisy (f1)'!$B$31:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4258,7 +5462,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>clean_noisy!$G$14:$G$19</c:f>
+              <c:f>'clean_noisy (f1)'!$L$14:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4294,7 +5498,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>clean_noisy!$G$30</c:f>
+              <c:f>'clean_noisy (f1)'!$L$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4327,7 +5531,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>clean_noisy!$B$31:$B$36</c:f>
+              <c:f>'clean_noisy (f1)'!$B$31:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4354,7 +5558,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>clean_noisy!$G$31:$G$36</c:f>
+              <c:f>'clean_noisy (f1)'!$L$31:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4516,7 +5720,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4553,6 +5756,1584 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparison ACCURACY with and without Spectral Substraction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'clean_noisy (f1)'!$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy with SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'clean_noisy (f1)'!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'clean_noisy (f1)'!$I$14:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.70706037129074695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73159982371088583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.734968591085851</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81223857474825711</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87881679389312972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99293563579277866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-01E2-4A45-93FE-BC3927AC9925}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'clean_noisy (f1)'!$I$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy without SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'clean_noisy (f1)'!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'clean_noisy (f1)'!$I$31:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.69799736880573016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68473630086675485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66676637750523482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75801704105344692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87102417302798985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-01E2-4A45-93FE-BC3927AC9925}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1219840384"/>
+        <c:axId val="1219828320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1219840384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219828320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1219828320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219840384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'clean_noisy (accuracy)'!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy with SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'clean_noisy (accuracy)'!$B$16:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'clean_noisy (accuracy)'!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.71729279345124985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73027765535478184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73900688004786119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8189000774593338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87022900763358779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96436420722135008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B835-45F4-A7AA-9C8B444139C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'clean_noisy (accuracy)'!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy without SS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'clean_noisy (accuracy)'!$C$34:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.57550065779856741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6068752754517408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63595572838767578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77072037180480246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89328880407124678</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B835-45F4-A7AA-9C8B444139C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="374528543"/>
+        <c:axId val="374531871"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="374528543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374531871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="374531871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374528543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TRUE POSITIVE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> VS TRUE NEGATIVE</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'clean_noisy (accuracy)'!$I$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tn with SS relativo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'clean_noisy (accuracy)'!$B$16:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'clean_noisy (accuracy)'!$I$16:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.17995910020449898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42046605876393112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60069965017491256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75413948820873056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85468354430379745</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98577235772357719</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9240-4DC8-BE09-54BA9B5BBAC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'clean_noisy (accuracy)'!$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tp with SS relativo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'clean_noisy (accuracy)'!$L$16:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.93244626407369502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85681771156631492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7980789754535752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84782608695652173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87734755390679342</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95479327578373463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9240-4DC8-BE09-54BA9B5BBAC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'clean_noisy (accuracy)'!$I$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tn without SS relativo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'clean_noisy (accuracy)'!$I$34:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.30163599182004092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46048632218844987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64217891054472764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74259909683893632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85974683544303798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9240-4DC8-BE09-54BA9B5BBAC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'clean_noisy (accuracy)'!$L$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tp without SS relativo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'clean_noisy (accuracy)'!$L$34:$L$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.68515864892528144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63329775880469585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78328103989242492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90864827266403891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9240-4DC8-BE09-54BA9B5BBAC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="374528543"/>
+        <c:axId val="374531871"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="374528543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374531871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="374531871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374528543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -4823,6 +7604,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
   <cs:axisTitle>
@@ -7930,6 +10831,1569 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8014,16 +12478,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4084</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>508907</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523630</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>162544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>299631</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>838968</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>99332</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8044,16 +12508,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>911677</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>181839</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>100939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>324395</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>349703</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>126473</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>139410</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8076,16 +12540,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>504825</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285007</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>146093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>533672</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>367393</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>323380</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>82881</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8108,16 +12572,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>223157</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>14350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>565243</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>349704</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>107548</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>52821</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8138,23 +12602,122 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>606136</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1094656</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>122341</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5" title="F-Score"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>257587</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>717467</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>197922</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>556654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>156151</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>146956</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B7:H14" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B7:H14" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="B7:H14"/>
   <sortState ref="B8:H14">
     <sortCondition ref="C7:C14"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="SS" dataDxfId="35"/>
-    <tableColumn id="2" name="SNR" dataDxfId="14"/>
-    <tableColumn id="3" name="f1 score validation with SS" dataDxfId="12"/>
-    <tableColumn id="4" name="confusion matrix" dataDxfId="13"/>
-    <tableColumn id="5" name="confusion matrix norm" dataDxfId="5"/>
-    <tableColumn id="6" name="True positive Neutral with SS" dataDxfId="4"/>
-    <tableColumn id="7" name="True positive Stress with SS" dataDxfId="3"/>
+    <tableColumn id="1" name="SS" dataDxfId="73"/>
+    <tableColumn id="2" name="SNR" dataDxfId="72"/>
+    <tableColumn id="3" name="f1 score validation with SS" dataDxfId="71"/>
+    <tableColumn id="4" name="confusion matrix" dataDxfId="70"/>
+    <tableColumn id="5" name="confusion matrix norm" dataDxfId="69"/>
+    <tableColumn id="6" name="True positive Neutral with SS" dataDxfId="68"/>
+    <tableColumn id="7" name="True positive Stress with SS" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8167,49 +12730,125 @@
     <sortCondition ref="C16:C23"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="SS" dataDxfId="9"/>
-    <tableColumn id="2" name="SNR" dataDxfId="8"/>
-    <tableColumn id="3" name="f1 score validation without SS" dataDxfId="7"/>
-    <tableColumn id="4" name="confusion matrix" dataDxfId="6"/>
-    <tableColumn id="5" name="confusion matrix norm" dataDxfId="2"/>
-    <tableColumn id="6" name="True positive Neutral without SS" dataDxfId="1"/>
-    <tableColumn id="7" name="True positive Stress without SS" dataDxfId="0"/>
+    <tableColumn id="1" name="SS" dataDxfId="66"/>
+    <tableColumn id="2" name="SNR" dataDxfId="65"/>
+    <tableColumn id="3" name="f1 score validation without SS" dataDxfId="64"/>
+    <tableColumn id="4" name="confusion matrix" dataDxfId="63"/>
+    <tableColumn id="5" name="confusion matrix norm" dataDxfId="62"/>
+    <tableColumn id="6" name="True positive Neutral without SS" dataDxfId="61"/>
+    <tableColumn id="7" name="True positive Stress without SS" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B13:G19" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="33" tableBorderDxfId="34" totalsRowBorderDxfId="32">
-  <autoFilter ref="B13:G19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B13:L19" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
+  <autoFilter ref="B13:L19"/>
   <sortState ref="B14:G19">
     <sortCondition ref="B13:B19"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" name="SNR" dataDxfId="18"/>
-    <tableColumn id="2" name="f1 score validation with SS" dataDxfId="16"/>
-    <tableColumn id="3" name="confusion matrix" dataDxfId="31"/>
-    <tableColumn id="4" name="confusion matrix norm" dataDxfId="30"/>
-    <tableColumn id="5" name="True positive Neutral with SS" dataDxfId="29"/>
-    <tableColumn id="6" name="True positive Stress with SS" dataDxfId="28"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="SNR" dataDxfId="55"/>
+    <tableColumn id="2" name="f1 score validation with SS" dataDxfId="54"/>
+    <tableColumn id="3" name="confusion matrix" dataDxfId="53"/>
+    <tableColumn id="8" name="Tn" dataDxfId="52"/>
+    <tableColumn id="9" name="Fp" dataDxfId="51"/>
+    <tableColumn id="10" name="Fn" dataDxfId="50"/>
+    <tableColumn id="11" name="Tp" dataDxfId="49"/>
+    <tableColumn id="12" name="Accuracy with SS" dataDxfId="48">
+      <calculatedColumnFormula>(Tabla2[[#This Row],[Tn]]+Tabla2[[#This Row],[Tp]])/SUM(Tabla2[[#This Row],[Tn]:[Tp]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="confusion matrix norm" dataDxfId="47"/>
+    <tableColumn id="5" name="True positive Neutral with SS" dataDxfId="46"/>
+    <tableColumn id="6" name="True positive Stress with SS" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B30:G36" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
-  <autoFilter ref="B30:G36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B30:L36" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+  <autoFilter ref="B30:L36"/>
   <sortState ref="B31:G36">
     <sortCondition ref="B30:B36"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" name="SNR" dataDxfId="17"/>
-    <tableColumn id="2" name="f1 score validation without SS" dataDxfId="15"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="SNR" dataDxfId="40"/>
+    <tableColumn id="2" name="f1 score validation without SS" dataDxfId="39"/>
+    <tableColumn id="3" name="confusion matrix" dataDxfId="38"/>
+    <tableColumn id="8" name="Tn" dataDxfId="37"/>
+    <tableColumn id="9" name="Fp" dataDxfId="36"/>
+    <tableColumn id="10" name="Fn" dataDxfId="35"/>
+    <tableColumn id="11" name="Tp" dataDxfId="34"/>
+    <tableColumn id="12" name="Accuracy without SS" dataDxfId="33">
+      <calculatedColumnFormula>(Tabla3[[#This Row],[Tn]]+Tabla3[[#This Row],[Tp]])/SUM(Tabla3[[#This Row],[Tn]:[Tp]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="confusion matrix norm" dataDxfId="32"/>
+    <tableColumn id="5" name="True positive Neutral without SS" dataDxfId="31"/>
+    <tableColumn id="6" name="True positive Stress without SS" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla26" displayName="Tabla26" ref="B15:L21" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="B15:L21"/>
+  <sortState ref="B16:H21">
+    <sortCondition ref="B15:B21"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" name="SNR" dataDxfId="25"/>
+    <tableColumn id="2" name="accuracy with SS" dataDxfId="24"/>
     <tableColumn id="3" name="confusion matrix" dataDxfId="23"/>
-    <tableColumn id="4" name="confusion matrix norm" dataDxfId="22"/>
-    <tableColumn id="5" name="True positive Neutral without SS" dataDxfId="21"/>
-    <tableColumn id="6" name="True positive Stress without SS" dataDxfId="20"/>
+    <tableColumn id="8" name="Tn with SS" dataDxfId="22"/>
+    <tableColumn id="9" name="Fp with SS" dataDxfId="21"/>
+    <tableColumn id="10" name="Fn with SS" dataDxfId="20"/>
+    <tableColumn id="11" name="Tp with SS" dataDxfId="9"/>
+    <tableColumn id="4" name="Tn with SS relativo" dataDxfId="8">
+      <calculatedColumnFormula>Tabla26[[#This Row],[Tn with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Fp with SS relativo" dataDxfId="7">
+      <calculatedColumnFormula>Tabla26[[#This Row],[Fp with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Fn with SS relativo" dataDxfId="6">
+      <calculatedColumnFormula>Tabla26[[#This Row],[Fn with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Tp with SS relativo" dataDxfId="5">
+      <calculatedColumnFormula>Tabla26[[#This Row],[Tp with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla37" displayName="Tabla37" ref="B33:L39" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+  <autoFilter ref="B33:L39"/>
+  <sortState ref="B34:H39">
+    <sortCondition ref="B33:B39"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" name="SNR" dataDxfId="15"/>
+    <tableColumn id="2" name="accuracy without SS" dataDxfId="14"/>
+    <tableColumn id="3" name="confusion matrix" dataDxfId="13"/>
+    <tableColumn id="8" name="Tn without SS" dataDxfId="12"/>
+    <tableColumn id="9" name="Fp without SS" dataDxfId="11"/>
+    <tableColumn id="10" name="Fn without SS" dataDxfId="10"/>
+    <tableColumn id="11" name="Tp without SS" dataDxfId="4"/>
+    <tableColumn id="4" name="Tn without SS relativo" dataDxfId="3">
+      <calculatedColumnFormula>Tabla37[[#This Row],[Tn without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Fp without SS relativo" dataDxfId="2">
+      <calculatedColumnFormula>Tabla37[[#This Row],[Fp without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Fn without SS relativo" dataDxfId="1">
+      <calculatedColumnFormula>Tabla37[[#This Row],[Fn without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Tp without SS relativo" dataDxfId="0">
+      <calculatedColumnFormula>Tabla37[[#This Row],[Tp without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8480,7 +13119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
@@ -8500,10 +13139,10 @@
     <row r="2" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -8516,7 +13155,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="37" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -8530,7 +13169,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
@@ -8558,27 +13197,27 @@
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="27">
         <v>-5</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="32">
         <v>0.88672086720867205</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="6">
@@ -8595,7 +13234,7 @@
       <c r="C9" s="8">
         <v>0</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="30">
         <v>0.90391841116478799</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -8618,7 +13257,7 @@
       <c r="C10" s="8">
         <v>5</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="30">
         <v>0.90016731734523103</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -8641,7 +13280,7 @@
       <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="30">
         <v>0.91355140186915895</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -8664,7 +13303,7 @@
       <c r="C12" s="8">
         <v>15</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="30">
         <v>0.89493201483312701</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -8687,7 +13326,7 @@
       <c r="C13" s="8">
         <v>20</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="30">
         <v>0.90812720848056505</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -8710,7 +13349,7 @@
       <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="34">
         <v>0.90223792697290905</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -8719,7 +13358,7 @@
       <c r="F14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="33">
         <v>0.95011338000000001</v>
       </c>
       <c r="H14" s="6">
@@ -8727,11 +13366,11 @@
       </c>
     </row>
     <row r="15" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
@@ -8751,10 +13390,10 @@
       <c r="F16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="16" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8765,7 +13404,7 @@
       <c r="C17" s="8">
         <v>-5</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="30">
         <v>0.90557939914163099</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -8788,7 +13427,7 @@
       <c r="C18" s="8">
         <v>0</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="30">
         <v>0.90225563909774398</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -8811,7 +13450,7 @@
       <c r="C19" s="8">
         <v>5</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="30">
         <v>0.90038953811908695</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -8834,7 +13473,7 @@
       <c r="C20" s="8">
         <v>10</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="30">
         <v>0.90813341135166703</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -8843,27 +13482,27 @@
       <c r="F20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="28">
         <v>0.94877506</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="28">
         <v>0.87485908000000001</v>
       </c>
     </row>
     <row r="21" spans="2:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="27">
         <v>15</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="32">
         <v>0.91359516616314196</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="28" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="6">
@@ -8880,7 +13519,7 @@
       <c r="C22" s="8">
         <v>20</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="30">
         <v>0.910776361529548</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -8903,7 +13542,7 @@
       <c r="C23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="30">
         <v>0.91598599766627697</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -8920,13 +13559,13 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="35"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="35"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="35"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
@@ -8957,10 +13596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G36"/>
+  <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+    <sheetView topLeftCell="A34" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8969,10 +13608,11 @@
     <col min="2" max="2" width="14.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="36" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="13" customWidth="1"/>
     <col min="6" max="7" width="14.7109375" style="13" customWidth="1"/>
-    <col min="8" max="9" width="13.7109375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="13"/>
+    <col min="8" max="8" width="13.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" style="13"/>
     <col min="13" max="13" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
@@ -8980,18 +13620,684 @@
     <col min="15" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="21" t="s">
+    <row r="1" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="40"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="41"/>
+      <c r="C5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.76694014801169796</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="25">
+        <v>-5</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0.81919884518224395</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="11">
+        <v>297</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1659</v>
+      </c>
+      <c r="G14" s="11">
+        <v>345</v>
+      </c>
+      <c r="H14" s="11">
+        <v>4540</v>
+      </c>
+      <c r="I14" s="11">
+        <f>(Tabla2[[#This Row],[Tn]]+Tabla2[[#This Row],[Tp]])/SUM(Tabla2[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.70706037129074695</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.15184048999999999</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.92937563999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="25">
+        <v>0</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0.82325626390635498</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="11">
+        <v>725</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1249</v>
+      </c>
+      <c r="G15" s="11">
+        <v>578</v>
+      </c>
+      <c r="H15" s="11">
+        <v>4255</v>
+      </c>
+      <c r="I15" s="11">
+        <f>(Tabla2[[#This Row],[Tn]]+Tabla2[[#This Row],[Tp]])/SUM(Tabla2[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.73159982371088583</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.36727457000000002</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0.88040554999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="25">
+        <v>5</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.81366982124079901</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1045</v>
+      </c>
+      <c r="F16" s="11">
+        <v>956</v>
+      </c>
+      <c r="G16" s="11">
+        <v>816</v>
+      </c>
+      <c r="H16" s="11">
+        <v>3869</v>
+      </c>
+      <c r="I16" s="11">
+        <f>(Tabla2[[#This Row],[Tn]]+Tabla2[[#This Row],[Tp]])/SUM(Tabla2[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.734968591085851</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0.52223887999999996</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.82582710999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25">
+        <v>10</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0.863174531496952</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1420</v>
+      </c>
+      <c r="F17" s="11">
+        <v>573</v>
+      </c>
+      <c r="G17" s="11">
+        <v>639</v>
+      </c>
+      <c r="H17" s="11">
+        <v>3823</v>
+      </c>
+      <c r="I17" s="11">
+        <f>(Tabla2[[#This Row],[Tn]]+Tabla2[[#This Row],[Tp]])/SUM(Tabla2[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.81223857474825711</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.71249373000000005</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0.85679068000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25">
+        <v>15</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0.91050035236081694</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1650</v>
+      </c>
+      <c r="F18" s="11">
+        <v>325</v>
+      </c>
+      <c r="G18" s="11">
+        <v>437</v>
+      </c>
+      <c r="H18" s="11">
+        <v>3876</v>
+      </c>
+      <c r="I18" s="11">
+        <f>(Tabla2[[#This Row],[Tn]]+Tabla2[[#This Row],[Tp]])/SUM(Tabla2[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.87881679389312972</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0.83544304000000003</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0.89867841000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="25">
+        <v>20</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.994877632327831</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1955</v>
+      </c>
+      <c r="F19" s="11">
+        <v>13</v>
+      </c>
+      <c r="G19" s="11">
+        <v>32</v>
+      </c>
+      <c r="H19" s="11">
+        <v>4370</v>
+      </c>
+      <c r="I19" s="11">
+        <f>(Tabla2[[#This Row],[Tn]]+Tabla2[[#This Row],[Tp]])/SUM(Tabla2[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.99293563579277866</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0.99339431</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0.99273058000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="22">
+        <v>0.71754134674367298</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="25">
+        <v>-5</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0.81661636783241598</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="11">
+        <v>175</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1781</v>
+      </c>
+      <c r="G31" s="11">
+        <v>285</v>
+      </c>
+      <c r="H31" s="11">
+        <v>4600</v>
+      </c>
+      <c r="I31" s="11">
+        <f>(Tabla3[[#This Row],[Tn]]+Tabla3[[#This Row],[Tp]])/SUM(Tabla3[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.69799736880573016</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="11">
+        <v>8.9468300000000001E-2</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0.94165814000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="25">
+        <v>0</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0.79030682040257905</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="11">
+        <v>617</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1357</v>
+      </c>
+      <c r="G32" s="11">
+        <v>789</v>
+      </c>
+      <c r="H32" s="11">
+        <v>4044</v>
+      </c>
+      <c r="I32" s="11">
+        <f>(Tabla3[[#This Row],[Tn]]+Tabla3[[#This Row],[Tp]])/SUM(Tabla3[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.68473630086675485</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0.31256331999999998</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0.83674736000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="25">
+        <v>5</v>
+      </c>
+      <c r="C33" s="26">
+        <v>0.747277676950998</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1164</v>
+      </c>
+      <c r="F33" s="11">
+        <v>837</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1391</v>
+      </c>
+      <c r="H33" s="11">
+        <v>3294</v>
+      </c>
+      <c r="I33" s="11">
+        <f>(Tabla3[[#This Row],[Tn]]+Tabla3[[#This Row],[Tp]])/SUM(Tabla3[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.66676637750523482</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0.58170915000000001</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0.70309498000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="25">
+        <v>10</v>
+      </c>
+      <c r="C34" s="26">
+        <v>0.81752336448598095</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1394</v>
+      </c>
+      <c r="F34" s="11">
+        <v>599</v>
+      </c>
+      <c r="G34" s="11">
+        <v>963</v>
+      </c>
+      <c r="H34" s="11">
+        <v>3499</v>
+      </c>
+      <c r="I34" s="11">
+        <f>(Tabla3[[#This Row],[Tn]]+Tabla3[[#This Row],[Tp]])/SUM(Tabla3[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.75801704105344692</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0.69944806999999998</v>
+      </c>
+      <c r="L34" s="12">
+        <v>0.78417749999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="25">
+        <v>15</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0.90428419686061601</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1646</v>
+      </c>
+      <c r="F35" s="11">
+        <v>329</v>
+      </c>
+      <c r="G35" s="11">
+        <v>482</v>
+      </c>
+      <c r="H35" s="11">
+        <v>3831</v>
+      </c>
+      <c r="I35" s="11">
+        <f>(Tabla3[[#This Row],[Tn]]+Tabla3[[#This Row],[Tp]])/SUM(Tabla3[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.87102417302798985</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0.83341772000000003</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0.88824484000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="25">
+        <v>20</v>
+      </c>
+      <c r="C36" s="26">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="11">
+        <v>1968</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>4402</v>
+      </c>
+      <c r="I36" s="11">
+        <f>(Tabla3[[#This Row],[Tn]]+Tabla3[[#This Row],[Tp]])/SUM(Tabla3[[#This Row],[Tn]:[Tp]])</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" s="11">
+        <v>1</v>
+      </c>
+      <c r="L36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AA37" sqref="AA37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="13"/>
+    <col min="2" max="2" width="14.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="36" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="12.5703125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="43"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="22" t="s">
         <v>59</v>
       </c>
@@ -8999,393 +14305,670 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
-      <c r="C5" s="25" t="s">
+    <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="41"/>
+      <c r="C5" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+    <row r="8" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:12" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>38</v>
+      <c r="C9" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+    <row r="10" spans="2:12" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>44</v>
+      <c r="C10" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
+    <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="35">
+        <v>2.9085648148148149E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="20">
-        <v>0.76694014801169796</v>
+      <c r="C12" s="18">
+        <v>0.81394820536119905</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="15" spans="2:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="17" t="s">
+      <c r="C15" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>81</v>
+      <c r="E15" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29">
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="25">
         <v>-5</v>
       </c>
-      <c r="C14" s="30">
-        <v>0.81919884518224395</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0.15184048999999999</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0.92937563999999995</v>
+      <c r="C16" s="26">
+        <v>0.71729279345124985</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="36">
+        <v>352</v>
+      </c>
+      <c r="F16" s="36">
+        <v>1604</v>
+      </c>
+      <c r="G16" s="36">
+        <v>330</v>
+      </c>
+      <c r="H16" s="36">
+        <v>4555</v>
+      </c>
+      <c r="I16" s="44">
+        <f>Tabla26[[#This Row],[Tn with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</f>
+        <v>0.17995910020449898</v>
+      </c>
+      <c r="J16" s="44">
+        <f>Tabla26[[#This Row],[Fp with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</f>
+        <v>0.82004089979550099</v>
+      </c>
+      <c r="K16" s="44">
+        <f>Tabla26[[#This Row],[Fn with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</f>
+        <v>6.7553735926305009E-2</v>
+      </c>
+      <c r="L16" s="44">
+        <f>Tabla26[[#This Row],[Tp with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</f>
+        <v>0.93244626407369502</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29">
+    <row r="17" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25">
         <v>0</v>
       </c>
-      <c r="C15" s="30">
-        <v>0.82325626390635498</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0.36727457000000002</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0.88040554999999998</v>
+      <c r="C17" s="26">
+        <v>0.73027765535478184</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="36">
+        <v>830</v>
+      </c>
+      <c r="F17" s="36">
+        <v>1144</v>
+      </c>
+      <c r="G17" s="36">
+        <v>692</v>
+      </c>
+      <c r="H17" s="36">
+        <v>4141</v>
+      </c>
+      <c r="I17" s="44">
+        <f>Tabla26[[#This Row],[Tn with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</f>
+        <v>0.42046605876393112</v>
+      </c>
+      <c r="J17" s="44">
+        <f>Tabla26[[#This Row],[Fp with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</f>
+        <v>0.57953394123606894</v>
+      </c>
+      <c r="K17" s="44">
+        <f>Tabla26[[#This Row],[Fn with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</f>
+        <v>0.14318228843368508</v>
+      </c>
+      <c r="L17" s="44">
+        <f>Tabla26[[#This Row],[Tp with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</f>
+        <v>0.85681771156631492</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29">
+    <row r="18" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25">
         <v>5</v>
       </c>
-      <c r="C16" s="30">
-        <v>0.81366982124079901</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0.52223887999999996</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0.82582710999999998</v>
+      <c r="C18" s="26">
+        <v>0.73900688004786119</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="36">
+        <v>1202</v>
+      </c>
+      <c r="F18" s="36">
+        <v>799</v>
+      </c>
+      <c r="G18" s="36">
+        <v>946</v>
+      </c>
+      <c r="H18" s="36">
+        <v>3739</v>
+      </c>
+      <c r="I18" s="44">
+        <f>Tabla26[[#This Row],[Tn with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</f>
+        <v>0.60069965017491256</v>
+      </c>
+      <c r="J18" s="44">
+        <f>Tabla26[[#This Row],[Fp with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</f>
+        <v>0.39930034982508744</v>
+      </c>
+      <c r="K18" s="44">
+        <f>Tabla26[[#This Row],[Fn with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</f>
+        <v>0.20192102454642477</v>
+      </c>
+      <c r="L18" s="44">
+        <f>Tabla26[[#This Row],[Tp with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</f>
+        <v>0.7980789754535752</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29">
+    <row r="19" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="25">
         <v>10</v>
       </c>
-      <c r="C17" s="30">
-        <v>0.863174531496952</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0.71249373000000005</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0.85679068000000003</v>
+      <c r="C19" s="26">
+        <v>0.8189000774593338</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="36">
+        <v>1503</v>
+      </c>
+      <c r="F19" s="36">
+        <v>490</v>
+      </c>
+      <c r="G19" s="36">
+        <v>679</v>
+      </c>
+      <c r="H19" s="36">
+        <v>3783</v>
+      </c>
+      <c r="I19" s="44">
+        <f>Tabla26[[#This Row],[Tn with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</f>
+        <v>0.75413948820873056</v>
+      </c>
+      <c r="J19" s="44">
+        <f>Tabla26[[#This Row],[Fp with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</f>
+        <v>0.24586051179126944</v>
+      </c>
+      <c r="K19" s="44">
+        <f>Tabla26[[#This Row],[Fn with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</f>
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="L19" s="44">
+        <f>Tabla26[[#This Row],[Tp with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</f>
+        <v>0.84782608695652173</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29">
+    <row r="20" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25">
         <v>15</v>
       </c>
-      <c r="C18" s="30">
-        <v>0.91050035236081694</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0.83544304000000003</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0.89867841000000004</v>
+      <c r="C20" s="26">
+        <v>0.87022900763358779</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="36">
+        <v>1688</v>
+      </c>
+      <c r="F20" s="36">
+        <v>287</v>
+      </c>
+      <c r="G20" s="36">
+        <v>529</v>
+      </c>
+      <c r="H20" s="36">
+        <v>3784</v>
+      </c>
+      <c r="I20" s="44">
+        <f>Tabla26[[#This Row],[Tn with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</f>
+        <v>0.85468354430379745</v>
+      </c>
+      <c r="J20" s="44">
+        <f>Tabla26[[#This Row],[Fp with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</f>
+        <v>0.14531645569620252</v>
+      </c>
+      <c r="K20" s="44">
+        <f>Tabla26[[#This Row],[Fn with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</f>
+        <v>0.12265244609320658</v>
+      </c>
+      <c r="L20" s="44">
+        <f>Tabla26[[#This Row],[Tp with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</f>
+        <v>0.87734755390679342</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="29">
+    <row r="21" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="25">
         <v>20</v>
       </c>
-      <c r="C19" s="30">
-        <v>0.994877632327831</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0.99339431</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0.99273058000000003</v>
+      <c r="C21" s="26">
+        <v>0.96436420722135008</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="36">
+        <v>1940</v>
+      </c>
+      <c r="F21" s="36">
+        <v>28</v>
+      </c>
+      <c r="G21" s="36">
+        <v>199</v>
+      </c>
+      <c r="H21" s="36">
+        <v>4203</v>
+      </c>
+      <c r="I21" s="44">
+        <f>Tabla26[[#This Row],[Tn with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</f>
+        <v>0.98577235772357719</v>
+      </c>
+      <c r="J21" s="44">
+        <f>Tabla26[[#This Row],[Fp with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</f>
+        <v>1.4227642276422764E-2</v>
+      </c>
+      <c r="K21" s="44">
+        <f>Tabla26[[#This Row],[Fn with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</f>
+        <v>4.5206724216265336E-2</v>
+      </c>
+      <c r="L21" s="44">
+        <f>Tabla26[[#This Row],[Tp with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</f>
+        <v>0.95479327578373463</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="28" t="s">
+    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C26" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="28" t="s">
+    <row r="27" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C27" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="28" t="s">
+    <row r="28" spans="2:12" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>38</v>
+      <c r="C28" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="28" t="s">
+    <row r="29" spans="2:12" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>65</v>
+      <c r="C29" s="22" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="28" t="s">
+    <row r="30" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="25">
-        <v>0.71754134674367298</v>
+      <c r="C31" s="22">
+        <v>0.77828259881871797</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
+    <row r="32" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="C33" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>83</v>
+      <c r="E33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="L33" s="45" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="29">
+    <row r="34" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="25">
         <v>-5</v>
       </c>
-      <c r="C31" s="30">
-        <v>0.81661636783241598</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="11">
-        <v>8.9468300000000001E-2</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0.94165814000000003</v>
+      <c r="C34" s="26">
+        <v>0.57550065779856741</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="36">
+        <v>590</v>
+      </c>
+      <c r="F34" s="36">
+        <v>1366</v>
+      </c>
+      <c r="G34" s="36">
+        <v>1538</v>
+      </c>
+      <c r="H34" s="36">
+        <v>3347</v>
+      </c>
+      <c r="I34" s="44">
+        <f>Tabla37[[#This Row],[Tn without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</f>
+        <v>0.30163599182004092</v>
+      </c>
+      <c r="J34" s="44">
+        <f>Tabla37[[#This Row],[Fp without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</f>
+        <v>0.69836400817995914</v>
+      </c>
+      <c r="K34" s="44">
+        <f>Tabla37[[#This Row],[Fn without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</f>
+        <v>0.3148413510747185</v>
+      </c>
+      <c r="L34" s="44">
+        <f>Tabla37[[#This Row],[Tp without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</f>
+        <v>0.68515864892528144</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="29">
+    <row r="35" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="25">
         <v>0</v>
       </c>
-      <c r="C32" s="30">
-        <v>0.79030682040257905</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0.31256331999999998</v>
-      </c>
-      <c r="G32" s="12">
-        <v>0.83674736000000005</v>
+      <c r="C35" s="26">
+        <v>0.6068752754517408</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="36">
+        <v>909</v>
+      </c>
+      <c r="F35" s="36">
+        <v>1065</v>
+      </c>
+      <c r="G35" s="36">
+        <v>1611</v>
+      </c>
+      <c r="H35" s="36">
+        <v>3222</v>
+      </c>
+      <c r="I35" s="44">
+        <f>Tabla37[[#This Row],[Tn without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</f>
+        <v>0.46048632218844987</v>
+      </c>
+      <c r="J35" s="44">
+        <f>Tabla37[[#This Row],[Fp without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</f>
+        <v>0.53951367781155013</v>
+      </c>
+      <c r="K35" s="44">
+        <f>Tabla37[[#This Row],[Fn without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L35" s="44">
+        <f>Tabla37[[#This Row],[Tp without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="29">
+    <row r="36" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="25">
         <v>5</v>
       </c>
-      <c r="C33" s="30">
-        <v>0.747277676950998</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0.58170915000000001</v>
-      </c>
-      <c r="G33" s="12">
-        <v>0.70309498000000004</v>
+      <c r="C36" s="26">
+        <v>0.63595572838767578</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="36">
+        <v>1285</v>
+      </c>
+      <c r="F36" s="36">
+        <v>716</v>
+      </c>
+      <c r="G36" s="36">
+        <v>1718</v>
+      </c>
+      <c r="H36" s="36">
+        <v>2967</v>
+      </c>
+      <c r="I36" s="44">
+        <f>Tabla37[[#This Row],[Tn without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</f>
+        <v>0.64217891054472764</v>
+      </c>
+      <c r="J36" s="44">
+        <f>Tabla37[[#This Row],[Fp without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</f>
+        <v>0.35782108945527236</v>
+      </c>
+      <c r="K36" s="44">
+        <f>Tabla37[[#This Row],[Fn without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</f>
+        <v>0.36670224119530415</v>
+      </c>
+      <c r="L36" s="44">
+        <f>Tabla37[[#This Row],[Tp without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</f>
+        <v>0.63329775880469585</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="29">
+    <row r="37" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="25">
         <v>10</v>
       </c>
-      <c r="C34" s="30">
-        <v>0.81752336448598095</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0.69944806999999998</v>
-      </c>
-      <c r="G34" s="12">
-        <v>0.78417749999999997</v>
+      <c r="C37" s="26">
+        <v>0.77072037180480246</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="36">
+        <v>1480</v>
+      </c>
+      <c r="F37" s="36">
+        <v>513</v>
+      </c>
+      <c r="G37" s="36">
+        <v>967</v>
+      </c>
+      <c r="H37" s="36">
+        <v>3495</v>
+      </c>
+      <c r="I37" s="44">
+        <f>Tabla37[[#This Row],[Tn without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</f>
+        <v>0.74259909683893632</v>
+      </c>
+      <c r="J37" s="44">
+        <f>Tabla37[[#This Row],[Fp without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</f>
+        <v>0.25740090316106373</v>
+      </c>
+      <c r="K37" s="44">
+        <f>Tabla37[[#This Row],[Fn without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</f>
+        <v>0.21671896010757508</v>
+      </c>
+      <c r="L37" s="44">
+        <f>Tabla37[[#This Row],[Tp without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</f>
+        <v>0.78328103989242492</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="29">
+    <row r="38" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="25">
         <v>15</v>
       </c>
-      <c r="C35" s="30">
-        <v>0.90428419686061601</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="11">
-        <v>0.83341772000000003</v>
-      </c>
-      <c r="G35" s="12">
-        <v>0.88824484000000004</v>
+      <c r="C38" s="26">
+        <v>0.89328880407124678</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="36">
+        <v>1698</v>
+      </c>
+      <c r="F38" s="36">
+        <v>277</v>
+      </c>
+      <c r="G38" s="36">
+        <v>394</v>
+      </c>
+      <c r="H38" s="36">
+        <v>3919</v>
+      </c>
+      <c r="I38" s="44">
+        <f>Tabla37[[#This Row],[Tn without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</f>
+        <v>0.85974683544303798</v>
+      </c>
+      <c r="J38" s="44">
+        <f>Tabla37[[#This Row],[Fp without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</f>
+        <v>0.14025316455696202</v>
+      </c>
+      <c r="K38" s="44">
+        <f>Tabla37[[#This Row],[Fn without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</f>
+        <v>9.1351727335961044E-2</v>
+      </c>
+      <c r="L38" s="44">
+        <f>Tabla37[[#This Row],[Tp without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</f>
+        <v>0.90864827266403891</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="29">
+    <row r="39" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="25">
         <v>20</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C39" s="26">
         <v>1</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D39" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="11">
+      <c r="E39" s="36">
+        <v>1968</v>
+      </c>
+      <c r="F39" s="36">
+        <v>0</v>
+      </c>
+      <c r="G39" s="36">
+        <v>0</v>
+      </c>
+      <c r="H39" s="36">
+        <v>4402</v>
+      </c>
+      <c r="I39" s="44">
+        <f>Tabla37[[#This Row],[Tn without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</f>
         <v>1</v>
       </c>
-      <c r="G36" s="12">
+      <c r="J39" s="44">
+        <f>Tabla37[[#This Row],[Fp without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="44">
+        <f>Tabla37[[#This Row],[Fn without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="44">
+        <f>Tabla37[[#This Row],[Tp without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</f>
         <v>1</v>
       </c>
     </row>

--- a/2_system/model/results.xlsx
+++ b/2_system/model/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="match_conditions (f1)" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="clean_noisy (f1)" sheetId="3" r:id="rId3"/>
     <sheet name="clean_noisy (accuracy)" sheetId="4" r:id="rId4"/>
     <sheet name="VAD rate" sheetId="5" r:id="rId5"/>
+    <sheet name="latex" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="135">
   <si>
     <t>SS</t>
   </si>
@@ -473,17 +474,44 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>F score 
+with SS</t>
+  </si>
+  <si>
+    <t>Accuracy 
+with SS</t>
+  </si>
+  <si>
+    <t>F-score and Accuracy in matched conditions with f-score optimization with SS</t>
+  </si>
+  <si>
+    <t>F-score and Accuracy in matched conditions with f-score optimization without SS</t>
+  </si>
+  <si>
+    <t>F-score and Accuracy in mismatched conditions with f-score optimization with SS</t>
+  </si>
+  <si>
+    <t>F-score and Accuracy in mismatched conditions with f-score optimization without SS</t>
+  </si>
+  <si>
+    <t>Accuracy in mismatched conditions with accuracy optimization with SS</t>
+  </si>
+  <si>
+    <t>Accuracy in mismatched conditions with accuracy optimization without SS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000000000000"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="180" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -551,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -697,12 +725,134 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -779,7 +929,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -791,19 +941,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -812,13 +962,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,7 +986,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -861,14 +1010,560 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="124">
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.0000000000000"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="180" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="180" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="180" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="180" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="#,##0.00000"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -889,7 +1584,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -916,7 +1611,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -943,7 +1638,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -970,7 +1665,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1139,7 +1834,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1252,7 +1947,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1279,7 +1974,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1306,7 +2001,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1333,7 +2028,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1502,7 +2197,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1872,7 +2567,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -2240,7 +2935,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -2447,7 +3142,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2518,7 +3213,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2567,7 +3262,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2619,7 +3314,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000000"/>
+      <numFmt numFmtId="165" formatCode="0.000000000"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2710,7 +3405,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2736,7 +3430,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3006,7 +3700,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3032,7 +3725,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3070,7 +3763,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1130742352"/>
@@ -3131,7 +3824,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3157,7 +3849,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3189,7 +3881,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1130741104"/>
@@ -3206,7 +3898,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3232,7 +3923,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3257,7 +3948,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3339,7 +4030,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3734,7 +4425,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="374531871"/>
@@ -3801,7 +4492,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="374528543"/>
@@ -3844,7 +4535,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3874,7 +4565,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3953,7 +4644,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4035,7 +4726,7 @@
                 <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.71729279345124985</c:v>
+                  <c:v>0.71729279345124997</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.73027765535478184</c:v>
@@ -4249,7 +4940,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4287,7 +4978,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1130742352"/>
@@ -4374,7 +5065,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4406,7 +5097,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1130741104"/>
@@ -4449,7 +5140,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4474,7 +5165,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4551,7 +5242,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4571,22 +5262,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.1028196721311</c:v>
+                  <c:v>0.10282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1072786885246</c:v>
+                  <c:v>0.10728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1231475409836</c:v>
+                  <c:v>0.12315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1534426229508</c:v>
+                  <c:v>0.15344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1753442622951</c:v>
+                  <c:v>0.17534</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1645901639344</c:v>
+                  <c:v>0.16459</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4644,7 +5335,7 @@
             <c:numRef>
               <c:f>'VAD rate'!$C$5:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000000000000</c:formatCode>
+                <c:formatCode>#,##0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.10281967213114701</c:v>
@@ -4744,7 +5435,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4782,7 +5473,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="779022176"/>
@@ -4873,7 +5564,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4905,7 +5596,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="779029664"/>
@@ -4946,7 +5637,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4999,6 +5690,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5024,7 +5716,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5294,6 +5986,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5319,7 +6012,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5357,7 +6050,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1130742352"/>
@@ -5427,6 +6120,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5452,7 +6146,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5484,7 +6178,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1130741104"/>
@@ -5501,6 +6195,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5526,7 +6221,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5551,7 +6246,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5602,6 +6297,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5627,7 +6323,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6103,7 +6799,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1219828320"/>
@@ -6172,7 +6868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1219840384"/>
@@ -6197,6 +6893,7 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6222,7 +6919,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6252,7 +6949,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6303,6 +7000,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6328,7 +7026,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6696,7 +7394,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1219828320"/>
@@ -6765,7 +7463,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1219840384"/>
@@ -6782,6 +7480,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6807,7 +7506,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6837,7 +7536,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6888,6 +7587,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6913,7 +7613,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7170,7 +7870,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1219828320"/>
@@ -7230,7 +7930,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1219840384"/>
@@ -7247,6 +7947,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7272,7 +7973,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7302,7 +8003,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7353,6 +8054,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7378,7 +8080,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7827,7 +8529,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1219828320"/>
@@ -7887,7 +8589,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1219840384"/>
@@ -7904,6 +8606,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7929,7 +8632,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7959,7 +8662,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8010,6 +8713,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8035,7 +8739,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8311,7 +9015,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1219828320"/>
@@ -8380,7 +9084,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1219840384"/>
@@ -8397,6 +9101,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8422,7 +9127,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8452,7 +9157,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8531,7 +9236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8827,7 +9532,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8865,7 +9570,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1130742352"/>
@@ -8961,7 +9666,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8993,7 +9698,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1130741104"/>
@@ -9036,7 +9741,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9061,7 +9766,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9140,7 +9845,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9436,7 +10141,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9474,7 +10179,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1130742352"/>
@@ -9561,7 +10266,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9593,7 +10298,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1130741104"/>
@@ -9636,7 +10341,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9661,7 +10366,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16715,19 +17420,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B7:H14" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B7:H14" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="B7:H14"/>
   <sortState ref="B8:H14">
     <sortCondition ref="C7:C14"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="SS" dataDxfId="101"/>
-    <tableColumn id="2" name="SNR" dataDxfId="100"/>
-    <tableColumn id="3" name="F score with SS" dataDxfId="99"/>
-    <tableColumn id="4" name="confusion matrix" dataDxfId="98"/>
-    <tableColumn id="5" name="confusion matrix norm" dataDxfId="97"/>
-    <tableColumn id="6" name="True positive Neutral with SS" dataDxfId="96"/>
-    <tableColumn id="7" name="True positive Stress with SS" dataDxfId="95"/>
+    <tableColumn id="1" name="SS" dataDxfId="121"/>
+    <tableColumn id="2" name="SNR" dataDxfId="120"/>
+    <tableColumn id="3" name="F score with SS" dataDxfId="119"/>
+    <tableColumn id="4" name="confusion matrix" dataDxfId="118"/>
+    <tableColumn id="5" name="confusion matrix norm" dataDxfId="117"/>
+    <tableColumn id="6" name="True positive Neutral with SS" dataDxfId="116"/>
+    <tableColumn id="7" name="True positive Stress with SS" dataDxfId="115"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="A4:G10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11" tableBorderDxfId="19">
+  <autoFilter ref="A4:G10"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="SNR" dataDxfId="18"/>
+    <tableColumn id="2" name="F score _x000a_with SS" dataDxfId="17"/>
+    <tableColumn id="3" name="Tn" dataDxfId="16"/>
+    <tableColumn id="4" name="Fp" dataDxfId="15"/>
+    <tableColumn id="5" name="Fn" dataDxfId="14"/>
+    <tableColumn id="6" name="Tp" dataDxfId="13"/>
+    <tableColumn id="7" name="Accuracy _x000a_with SS" dataDxfId="12">
+      <calculatedColumnFormula>(C5+F5)/SUM(C5:F5)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla1012" displayName="Tabla1012" ref="A16:G22" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0" tableBorderDxfId="8">
+  <autoFilter ref="A16:G22"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="SNR" dataDxfId="7"/>
+    <tableColumn id="2" name="F score _x000a_with SS" dataDxfId="6"/>
+    <tableColumn id="3" name="Tn" dataDxfId="5"/>
+    <tableColumn id="4" name="Fp" dataDxfId="4"/>
+    <tableColumn id="5" name="Fn" dataDxfId="3"/>
+    <tableColumn id="6" name="Tp" dataDxfId="2"/>
+    <tableColumn id="7" name="Accuracy _x000a_with SS" dataDxfId="1">
+      <calculatedColumnFormula>(Tabla410[[#This Row],[Tp]]+Tabla410[[#This Row],[Tn]])/SUM(Tabla410[[#This Row],[Tn]:[Tp]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16740,43 +17481,43 @@
     <sortCondition ref="C16:C23"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="SS" dataDxfId="94"/>
-    <tableColumn id="2" name="SNR" dataDxfId="93"/>
-    <tableColumn id="3" name="F score without SS" dataDxfId="92"/>
-    <tableColumn id="4" name="confusion matrix" dataDxfId="91"/>
-    <tableColumn id="5" name="confusion matrix norm" dataDxfId="90"/>
-    <tableColumn id="6" name="True positive Neutral without SS" dataDxfId="89"/>
-    <tableColumn id="7" name="True positive Stress without SS" dataDxfId="88"/>
+    <tableColumn id="1" name="SS" dataDxfId="114"/>
+    <tableColumn id="2" name="SNR" dataDxfId="113"/>
+    <tableColumn id="3" name="F score without SS" dataDxfId="112"/>
+    <tableColumn id="4" name="confusion matrix" dataDxfId="111"/>
+    <tableColumn id="5" name="confusion matrix norm" dataDxfId="110"/>
+    <tableColumn id="6" name="True positive Neutral without SS" dataDxfId="109"/>
+    <tableColumn id="7" name="True positive Stress without SS" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla19" displayName="Tabla19" ref="B7:M14" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla19" displayName="Tabla19" ref="B7:M14" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="B7:M14"/>
   <sortState ref="B8:H14">
     <sortCondition ref="C7:C14"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="SS" dataDxfId="85"/>
-    <tableColumn id="2" name="SNR" dataDxfId="84"/>
-    <tableColumn id="3" name="F score with SS" dataDxfId="83"/>
-    <tableColumn id="4" name="confusion matrix" dataDxfId="82"/>
-    <tableColumn id="5" name="Tn" dataDxfId="81"/>
-    <tableColumn id="6" name="Fp" dataDxfId="80"/>
-    <tableColumn id="7" name="Fn" dataDxfId="79"/>
-    <tableColumn id="8" name="Tp" dataDxfId="78"/>
-    <tableColumn id="9" name="Accuracy with SS" dataDxfId="77">
+    <tableColumn id="1" name="SS" dataDxfId="105"/>
+    <tableColumn id="2" name="SNR" dataDxfId="104"/>
+    <tableColumn id="3" name="F score with SS" dataDxfId="103"/>
+    <tableColumn id="4" name="confusion matrix" dataDxfId="102"/>
+    <tableColumn id="5" name="Tn" dataDxfId="101"/>
+    <tableColumn id="6" name="Fp" dataDxfId="100"/>
+    <tableColumn id="7" name="Fn" dataDxfId="99"/>
+    <tableColumn id="8" name="Tp" dataDxfId="98"/>
+    <tableColumn id="9" name="Accuracy with SS" dataDxfId="97">
       <calculatedColumnFormula>(Tabla19[[#This Row],[Tn]]+Tabla19[[#This Row],[Tp]])/SUM(Tabla19[[#This Row],[Tn]:[Tp]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TOTAL Test" dataDxfId="76">
+    <tableColumn id="10" name="TOTAL Test" dataDxfId="96">
       <calculatedColumnFormula>SUM(Tabla19[[#This Row],[Tn]:[Tp]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Total train" dataDxfId="75">
+    <tableColumn id="11" name="Total train" dataDxfId="95">
       <calculatedColumnFormula>0.8*Tabla19[[#This Row],[TOTAL Test]]/0.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Total" dataDxfId="74">
+    <tableColumn id="12" name="Total" dataDxfId="94">
       <calculatedColumnFormula>SUM(Tabla19[[#This Row],[TOTAL Test]:[Total train]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16791,24 +17532,24 @@
     <sortCondition ref="C16:C23"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="SS" dataDxfId="73"/>
-    <tableColumn id="2" name="SNR" dataDxfId="72"/>
-    <tableColumn id="3" name="F score without SS" dataDxfId="71"/>
-    <tableColumn id="4" name="confusion matrix" dataDxfId="70"/>
-    <tableColumn id="5" name="Tn" dataDxfId="69"/>
-    <tableColumn id="6" name="Fp" dataDxfId="68"/>
-    <tableColumn id="7" name="Fn" dataDxfId="67"/>
-    <tableColumn id="8" name="Tp" dataDxfId="66"/>
-    <tableColumn id="9" name="Accuracy without SS" dataDxfId="65">
+    <tableColumn id="1" name="SS" dataDxfId="93"/>
+    <tableColumn id="2" name="SNR" dataDxfId="92"/>
+    <tableColumn id="3" name="F score without SS" dataDxfId="91"/>
+    <tableColumn id="4" name="confusion matrix" dataDxfId="90"/>
+    <tableColumn id="5" name="Tn" dataDxfId="89"/>
+    <tableColumn id="6" name="Fp" dataDxfId="88"/>
+    <tableColumn id="7" name="Fn" dataDxfId="87"/>
+    <tableColumn id="8" name="Tp" dataDxfId="86"/>
+    <tableColumn id="9" name="Accuracy without SS" dataDxfId="85">
       <calculatedColumnFormula>(Tabla410[[#This Row],[Tp]]+Tabla410[[#This Row],[Tn]])/SUM(Tabla410[[#This Row],[Tn]:[Tp]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="TOTAL Test" dataDxfId="64">
+    <tableColumn id="10" name="TOTAL Test" dataDxfId="84">
       <calculatedColumnFormula>SUM(Tabla410[[#This Row],[Tn]:[Tp]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Total train" dataDxfId="63">
+    <tableColumn id="11" name="Total train" dataDxfId="83">
       <calculatedColumnFormula>0.8*Tabla410[[#This Row],[TOTAL Test]]/0.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Total" dataDxfId="62">
+    <tableColumn id="12" name="Total" dataDxfId="82">
       <calculatedColumnFormula>SUM(Tabla410[[#This Row],[TOTAL Test]:[Total train]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16817,79 +17558,79 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B13:L19" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B13:L19" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
   <autoFilter ref="B13:L19"/>
   <sortState ref="B14:G19">
     <sortCondition ref="B13:B19"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="SNR" dataDxfId="57"/>
-    <tableColumn id="2" name="F score with SS" dataDxfId="56"/>
-    <tableColumn id="3" name="confusion matrix" dataDxfId="55"/>
-    <tableColumn id="8" name="Tn" dataDxfId="54"/>
-    <tableColumn id="9" name="Fp" dataDxfId="53"/>
-    <tableColumn id="10" name="Fn" dataDxfId="52"/>
-    <tableColumn id="11" name="Tp" dataDxfId="51"/>
-    <tableColumn id="12" name="Accuracy with SS" dataDxfId="50">
+    <tableColumn id="1" name="SNR" dataDxfId="77"/>
+    <tableColumn id="2" name="F score with SS" dataDxfId="76"/>
+    <tableColumn id="3" name="confusion matrix" dataDxfId="75"/>
+    <tableColumn id="8" name="Tn" dataDxfId="74"/>
+    <tableColumn id="9" name="Fp" dataDxfId="73"/>
+    <tableColumn id="10" name="Fn" dataDxfId="72"/>
+    <tableColumn id="11" name="Tp" dataDxfId="71"/>
+    <tableColumn id="12" name="Accuracy with SS" dataDxfId="70">
       <calculatedColumnFormula>(Tabla2[[#This Row],[Tn]]+Tabla2[[#This Row],[Tp]])/SUM(Tabla2[[#This Row],[Tn]:[Tp]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="confusion matrix norm" dataDxfId="49"/>
-    <tableColumn id="5" name="True positive Neutral with SS" dataDxfId="48"/>
-    <tableColumn id="6" name="True positive Stress with SS" dataDxfId="47"/>
+    <tableColumn id="4" name="confusion matrix norm" dataDxfId="69"/>
+    <tableColumn id="5" name="True positive Neutral with SS" dataDxfId="68"/>
+    <tableColumn id="6" name="True positive Stress with SS" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B30:L36" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B30:L36" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="65" tableBorderDxfId="64" totalsRowBorderDxfId="63">
   <autoFilter ref="B30:L36"/>
   <sortState ref="B31:G36">
     <sortCondition ref="B30:B36"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="SNR" dataDxfId="42"/>
-    <tableColumn id="2" name="F score without SS" dataDxfId="41"/>
-    <tableColumn id="3" name="confusion matrix" dataDxfId="40"/>
-    <tableColumn id="8" name="Tn" dataDxfId="39"/>
-    <tableColumn id="9" name="Fp" dataDxfId="38"/>
-    <tableColumn id="10" name="Fn" dataDxfId="37"/>
-    <tableColumn id="11" name="Tp" dataDxfId="36"/>
-    <tableColumn id="12" name="Accuracy without SS" dataDxfId="35">
+    <tableColumn id="1" name="SNR" dataDxfId="62"/>
+    <tableColumn id="2" name="F score without SS" dataDxfId="61"/>
+    <tableColumn id="3" name="confusion matrix" dataDxfId="60"/>
+    <tableColumn id="8" name="Tn" dataDxfId="59"/>
+    <tableColumn id="9" name="Fp" dataDxfId="58"/>
+    <tableColumn id="10" name="Fn" dataDxfId="57"/>
+    <tableColumn id="11" name="Tp" dataDxfId="56"/>
+    <tableColumn id="12" name="Accuracy without SS" dataDxfId="55">
       <calculatedColumnFormula>(Tabla3[[#This Row],[Tn]]+Tabla3[[#This Row],[Tp]])/SUM(Tabla3[[#This Row],[Tn]:[Tp]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="confusion matrix norm" dataDxfId="34"/>
-    <tableColumn id="5" name="True positive Neutral without SS" dataDxfId="33"/>
-    <tableColumn id="6" name="True positive Stress without SS" dataDxfId="32"/>
+    <tableColumn id="4" name="confusion matrix norm" dataDxfId="54"/>
+    <tableColumn id="5" name="True positive Neutral without SS" dataDxfId="53"/>
+    <tableColumn id="6" name="True positive Stress without SS" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla26" displayName="Tabla26" ref="B15:L21" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla26" displayName="Tabla26" ref="B15:L21" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49" totalsRowBorderDxfId="48">
   <autoFilter ref="B15:L21"/>
   <sortState ref="B16:H21">
     <sortCondition ref="B15:B21"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="SNR" dataDxfId="27"/>
-    <tableColumn id="2" name="Accuracy with SS" dataDxfId="26"/>
-    <tableColumn id="3" name="confusion matrix" dataDxfId="25"/>
-    <tableColumn id="8" name="Tn with SS" dataDxfId="24"/>
-    <tableColumn id="9" name="Fp with SS" dataDxfId="23"/>
-    <tableColumn id="10" name="Fn with SS" dataDxfId="22"/>
-    <tableColumn id="11" name="Tp with SS" dataDxfId="21"/>
-    <tableColumn id="4" name="Tn with SS relativo" dataDxfId="20">
+    <tableColumn id="1" name="SNR" dataDxfId="47"/>
+    <tableColumn id="2" name="Accuracy with SS" dataDxfId="46"/>
+    <tableColumn id="3" name="confusion matrix" dataDxfId="45"/>
+    <tableColumn id="8" name="Tn with SS" dataDxfId="44"/>
+    <tableColumn id="9" name="Fp with SS" dataDxfId="43"/>
+    <tableColumn id="10" name="Fn with SS" dataDxfId="42"/>
+    <tableColumn id="11" name="Tp with SS" dataDxfId="41"/>
+    <tableColumn id="4" name="Tn with SS relativo" dataDxfId="40">
       <calculatedColumnFormula>Tabla26[[#This Row],[Tn with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Fp with SS relativo" dataDxfId="19">
+    <tableColumn id="5" name="Fp with SS relativo" dataDxfId="39">
       <calculatedColumnFormula>Tabla26[[#This Row],[Fp with SS]]/SUM(Tabla26[[#This Row],[Tn with SS]:[Fp with SS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Fn with SS relativo" dataDxfId="18">
+    <tableColumn id="6" name="Fn with SS relativo" dataDxfId="38">
       <calculatedColumnFormula>Tabla26[[#This Row],[Fn with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Tp with SS relativo" dataDxfId="17">
+    <tableColumn id="7" name="Tp with SS relativo" dataDxfId="37">
       <calculatedColumnFormula>Tabla26[[#This Row],[Tp with SS]]/SUM(Tabla26[[#This Row],[Fn with SS]:[Tp with SS]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16898,29 +17639,29 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla37" displayName="Tabla37" ref="B33:L39" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla37" displayName="Tabla37" ref="B33:L39" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="B33:L39"/>
   <sortState ref="B34:H39">
     <sortCondition ref="B33:B39"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="SNR" dataDxfId="12"/>
-    <tableColumn id="2" name="Accuracy without SS" dataDxfId="11"/>
-    <tableColumn id="3" name="confusion matrix" dataDxfId="10"/>
-    <tableColumn id="8" name="Tn without SS" dataDxfId="9"/>
-    <tableColumn id="9" name="Fp without SS" dataDxfId="8"/>
-    <tableColumn id="10" name="Fn without SS" dataDxfId="7"/>
-    <tableColumn id="11" name="Tp without SS" dataDxfId="6"/>
-    <tableColumn id="4" name="Tn without SS relativo" dataDxfId="5">
+    <tableColumn id="1" name="SNR" dataDxfId="32"/>
+    <tableColumn id="2" name="Accuracy without SS" dataDxfId="31"/>
+    <tableColumn id="3" name="confusion matrix" dataDxfId="30"/>
+    <tableColumn id="8" name="Tn without SS" dataDxfId="29"/>
+    <tableColumn id="9" name="Fp without SS" dataDxfId="28"/>
+    <tableColumn id="10" name="Fn without SS" dataDxfId="27"/>
+    <tableColumn id="11" name="Tp without SS" dataDxfId="26"/>
+    <tableColumn id="4" name="Tn without SS relativo" dataDxfId="25">
       <calculatedColumnFormula>Tabla37[[#This Row],[Tn without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Fp without SS relativo" dataDxfId="4">
+    <tableColumn id="5" name="Fp without SS relativo" dataDxfId="24">
       <calculatedColumnFormula>Tabla37[[#This Row],[Fp without SS]]/SUM(Tabla37[[#This Row],[Tn without SS]:[Fp without SS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Fn without SS relativo" dataDxfId="3">
+    <tableColumn id="6" name="Fn without SS relativo" dataDxfId="23">
       <calculatedColumnFormula>Tabla37[[#This Row],[Fn without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Tp without SS relativo" dataDxfId="2">
+    <tableColumn id="7" name="Tp without SS relativo" dataDxfId="22">
       <calculatedColumnFormula>Tabla37[[#This Row],[Tp without SS]]/SUM(Tabla37[[#This Row],[Fn without SS]:[Tp without SS]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16929,14 +17670,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B4:D10" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="B4:D10" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B4:D10"/>
   <sortState ref="B5:C10">
     <sortCondition ref="B4:B10"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="SNR"/>
-    <tableColumn id="2" name="VAD Rate" dataDxfId="0"/>
+    <tableColumn id="2" name="VAD Rate" dataDxfId="20"/>
     <tableColumn id="3" name="Mean"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17228,10 +17969,10 @@
     <row r="2" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -17244,7 +17985,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -17258,7 +17999,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
@@ -17687,8 +18428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T40" sqref="T40"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17710,10 +18451,10 @@
     <row r="2" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
@@ -17726,7 +18467,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -17740,7 +18481,7 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
@@ -17774,19 +18515,19 @@
       <c r="H7" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -17812,10 +18553,10 @@
       <c r="H8" s="11">
         <v>161</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="40">
         <v>818</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="40">
         <f>(Tabla19[[#This Row],[Tn]]+Tabla19[[#This Row],[Tp]])/SUM(Tabla19[[#This Row],[Tn]:[Tp]])</f>
         <v>0.89303991811668371</v>
       </c>
@@ -17854,10 +18595,10 @@
       <c r="H9" s="11">
         <v>132</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="40">
         <v>842</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="40">
         <f>(Tabla19[[#This Row],[Tn]]+Tabla19[[#This Row],[Tp]])/SUM(Tabla19[[#This Row],[Tn]:[Tp]])</f>
         <v>0.90744570837642191</v>
       </c>
@@ -17896,10 +18637,10 @@
       <c r="H10" s="11">
         <v>138</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="40">
         <v>807</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="40">
         <f>(Tabla19[[#This Row],[Tn]]+Tabla19[[#This Row],[Tp]])/SUM(Tabla19[[#This Row],[Tn]:[Tp]])</f>
         <v>0.90448239060832447</v>
       </c>
@@ -17938,10 +18679,10 @@
       <c r="H11" s="11">
         <v>105</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="40">
         <v>782</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="40">
         <f>(Tabla19[[#This Row],[Tn]]+Tabla19[[#This Row],[Tp]])/SUM(Tabla19[[#This Row],[Tn]:[Tp]])</f>
         <v>0.91708683473389352</v>
       </c>
@@ -17980,10 +18721,10 @@
       <c r="H12" s="11">
         <v>126</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="40">
         <v>724</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="40">
         <f>(Tabla19[[#This Row],[Tn]]+Tabla19[[#This Row],[Tp]])/SUM(Tabla19[[#This Row],[Tn]:[Tp]])</f>
         <v>0.90150637311703363</v>
       </c>
@@ -18022,10 +18763,10 @@
       <c r="H13" s="11">
         <v>123</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="40">
         <v>771</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="40">
         <f>(Tabla19[[#This Row],[Tn]]+Tabla19[[#This Row],[Tp]])/SUM(Tabla19[[#This Row],[Tn]:[Tp]])</f>
         <v>0.91141396933560481</v>
       </c>
@@ -18058,7 +18799,7 @@
       <c r="F14" s="7">
         <v>838</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="43">
         <v>44</v>
       </c>
       <c r="H14" s="6">
@@ -18115,19 +18856,19 @@
       <c r="H16" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="41" t="s">
         <v>87</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="L16" s="45" t="s">
+      <c r="L16" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="M16" s="45" t="s">
+      <c r="M16" s="44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -18153,10 +18894,10 @@
       <c r="H17" s="11">
         <v>135</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="42">
         <v>844</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="42">
         <f>(Tabla410[[#This Row],[Tp]]+Tabla410[[#This Row],[Tn]])/SUM(Tabla410[[#This Row],[Tn]:[Tp]])</f>
         <v>0.90992835209825995</v>
       </c>
@@ -18399,7 +19140,7 @@
       <c r="F23" s="7">
         <v>841</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="43">
         <v>41</v>
       </c>
       <c r="H23" s="6">
@@ -18465,8 +19206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A28" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18491,10 +19232,10 @@
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="23"/>
@@ -18507,7 +19248,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="22" t="s">
@@ -18521,7 +19262,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="51"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="22" t="s">
         <v>60</v>
       </c>
@@ -19137,8 +19878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="A28" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19157,10 +19898,10 @@
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="53"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="23"/>
@@ -19173,7 +19914,7 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="22" t="s">
@@ -19187,7 +19928,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="51"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="22" t="s">
         <v>60</v>
       </c>
@@ -19291,7 +20032,7 @@
         <v>-5</v>
       </c>
       <c r="C16" s="26">
-        <v>0.71729279345124985</v>
+        <v>0.71729279345124997</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>103</v>
@@ -19840,9 +20581,9 @@
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H44" s="46">
-        <f>C16-C34</f>
-        <v>0.14179213565268245</v>
+      <c r="H44" s="45">
+        <f>(C16-C34)/C34</f>
+        <v>0.24638049276098589</v>
       </c>
     </row>
   </sheetData>
@@ -19862,25 +20603,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D10"/>
+  <dimension ref="B4:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>121</v>
       </c>
     </row>
@@ -19888,7 +20629,7 @@
       <c r="B5">
         <v>-5</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="55">
         <f>10.2819672131147/100</f>
         <v>0.10281967213114701</v>
       </c>
@@ -19900,7 +20641,7 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="55">
         <f>10.727868852459/100</f>
         <v>0.10727868852459001</v>
       </c>
@@ -19912,7 +20653,7 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="55">
         <f>12.3147540983606/100</f>
         <v>0.123147540983606</v>
       </c>
@@ -19924,7 +20665,7 @@
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="55">
         <f>15.3442622950819/100</f>
         <v>0.15344262295081901</v>
       </c>
@@ -19936,7 +20677,7 @@
       <c r="B9">
         <v>15</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="55">
         <f>17.5344262295081/100</f>
         <v>0.17534426229508099</v>
       </c>
@@ -19948,12 +20689,18 @@
       <c r="B10">
         <v>20</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="55">
         <f>16.4590163934426/100</f>
         <v>0.16459016393442599</v>
       </c>
       <c r="D10">
         <v>0.14085245901639301</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>MAX(Tabla7[VAD Rate])-MIN(Tabla7[VAD Rate])</f>
+        <v>7.2524590163933977E-2</v>
       </c>
     </row>
   </sheetData>
@@ -19963,4 +20710,1077 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:F66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="56">
+        <v>-5</v>
+      </c>
+      <c r="B5" s="59">
+        <v>0.88672086720867205</v>
+      </c>
+      <c r="C5" s="57">
+        <v>927</v>
+      </c>
+      <c r="D5" s="57">
+        <v>48</v>
+      </c>
+      <c r="E5" s="57">
+        <v>161</v>
+      </c>
+      <c r="F5" s="58">
+        <v>818</v>
+      </c>
+      <c r="G5" s="60">
+        <f>(C5+F5)/SUM(C5:F5)</f>
+        <v>0.89303991811668371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="56">
+        <v>0</v>
+      </c>
+      <c r="B6" s="59">
+        <v>0.90391841116478799</v>
+      </c>
+      <c r="C6" s="57">
+        <v>913</v>
+      </c>
+      <c r="D6" s="57">
+        <v>47</v>
+      </c>
+      <c r="E6" s="57">
+        <v>132</v>
+      </c>
+      <c r="F6" s="58">
+        <v>842</v>
+      </c>
+      <c r="G6" s="60">
+        <f t="shared" ref="G6:G10" si="0">(C6+F6)/SUM(C6:F6)</f>
+        <v>0.90744570837642191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="56">
+        <v>5</v>
+      </c>
+      <c r="B7" s="59">
+        <v>0.90016731734523103</v>
+      </c>
+      <c r="C7" s="57">
+        <v>888</v>
+      </c>
+      <c r="D7" s="57">
+        <v>41</v>
+      </c>
+      <c r="E7" s="57">
+        <v>138</v>
+      </c>
+      <c r="F7" s="58">
+        <v>807</v>
+      </c>
+      <c r="G7" s="60">
+        <f t="shared" si="0"/>
+        <v>0.90448239060832447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="56">
+        <v>10</v>
+      </c>
+      <c r="B8" s="59">
+        <v>0.91355140186915895</v>
+      </c>
+      <c r="C8" s="57">
+        <v>855</v>
+      </c>
+      <c r="D8" s="57">
+        <v>43</v>
+      </c>
+      <c r="E8" s="57">
+        <v>105</v>
+      </c>
+      <c r="F8" s="58">
+        <v>782</v>
+      </c>
+      <c r="G8" s="60">
+        <f t="shared" si="0"/>
+        <v>0.91708683473389352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="56">
+        <v>15</v>
+      </c>
+      <c r="B9" s="59">
+        <v>0.89493201483312701</v>
+      </c>
+      <c r="C9" s="57">
+        <v>832</v>
+      </c>
+      <c r="D9" s="57">
+        <v>44</v>
+      </c>
+      <c r="E9" s="57">
+        <v>126</v>
+      </c>
+      <c r="F9" s="58">
+        <v>724</v>
+      </c>
+      <c r="G9" s="60">
+        <f t="shared" si="0"/>
+        <v>0.90150637311703363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="56">
+        <v>20</v>
+      </c>
+      <c r="B10" s="59">
+        <v>0.90812720848056505</v>
+      </c>
+      <c r="C10" s="57">
+        <v>834</v>
+      </c>
+      <c r="D10" s="57">
+        <v>33</v>
+      </c>
+      <c r="E10" s="57">
+        <v>123</v>
+      </c>
+      <c r="F10" s="58">
+        <v>771</v>
+      </c>
+      <c r="G10" s="60">
+        <f t="shared" si="0"/>
+        <v>0.91141396933560481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="56">
+        <v>-5</v>
+      </c>
+      <c r="B17" s="66">
+        <v>0.90557939914163099</v>
+      </c>
+      <c r="C17" s="57">
+        <v>934</v>
+      </c>
+      <c r="D17" s="57">
+        <v>41</v>
+      </c>
+      <c r="E17" s="57">
+        <v>135</v>
+      </c>
+      <c r="F17" s="67">
+        <v>844</v>
+      </c>
+      <c r="G17" s="68">
+        <f>(Tabla410[[#This Row],[Tp]]+Tabla410[[#This Row],[Tn]])/SUM(Tabla410[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.90992835209825995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="56">
+        <v>0</v>
+      </c>
+      <c r="B18" s="66">
+        <v>0.90225563909774398</v>
+      </c>
+      <c r="C18" s="57">
+        <v>912</v>
+      </c>
+      <c r="D18" s="57">
+        <v>48</v>
+      </c>
+      <c r="E18" s="57">
+        <v>134</v>
+      </c>
+      <c r="F18" s="57">
+        <v>840</v>
+      </c>
+      <c r="G18" s="59">
+        <f>(Tabla410[[#This Row],[Tp]]+Tabla410[[#This Row],[Tn]])/SUM(Tabla410[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.90589451913133401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="56">
+        <v>5</v>
+      </c>
+      <c r="B19" s="66">
+        <v>0.90038953811908695</v>
+      </c>
+      <c r="C19" s="57">
+        <v>886</v>
+      </c>
+      <c r="D19" s="57">
+        <v>43</v>
+      </c>
+      <c r="E19" s="57">
+        <v>136</v>
+      </c>
+      <c r="F19" s="57">
+        <v>809</v>
+      </c>
+      <c r="G19" s="59">
+        <f>(Tabla410[[#This Row],[Tp]]+Tabla410[[#This Row],[Tn]])/SUM(Tabla410[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.90448239060832447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="56">
+        <v>10</v>
+      </c>
+      <c r="B20" s="66">
+        <v>0.90813341135166703</v>
+      </c>
+      <c r="C20" s="57">
+        <v>852</v>
+      </c>
+      <c r="D20" s="57">
+        <v>46</v>
+      </c>
+      <c r="E20" s="57">
+        <v>111</v>
+      </c>
+      <c r="F20" s="57">
+        <v>776</v>
+      </c>
+      <c r="G20" s="59">
+        <f>(Tabla410[[#This Row],[Tp]]+Tabla410[[#This Row],[Tn]])/SUM(Tabla410[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.91204481792717085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="56">
+        <v>15</v>
+      </c>
+      <c r="B21" s="69">
+        <v>0.91359516616314196</v>
+      </c>
+      <c r="C21" s="57">
+        <v>827</v>
+      </c>
+      <c r="D21" s="57">
+        <v>49</v>
+      </c>
+      <c r="E21" s="57">
+        <v>94</v>
+      </c>
+      <c r="F21" s="57">
+        <v>756</v>
+      </c>
+      <c r="G21" s="59">
+        <f>(Tabla410[[#This Row],[Tp]]+Tabla410[[#This Row],[Tn]])/SUM(Tabla410[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.91714947856315177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="56">
+        <v>20</v>
+      </c>
+      <c r="B22" s="66">
+        <v>0.910776361529548</v>
+      </c>
+      <c r="C22" s="57">
+        <v>821</v>
+      </c>
+      <c r="D22" s="57">
+        <v>46</v>
+      </c>
+      <c r="E22" s="57">
+        <v>108</v>
+      </c>
+      <c r="F22" s="57">
+        <v>786</v>
+      </c>
+      <c r="G22" s="59">
+        <f>(Tabla410[[#This Row],[Tp]]+Tabla410[[#This Row],[Tn]])/SUM(Tabla410[[#This Row],[Tn]:[Tp]])</f>
+        <v>0.91254968767745603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="71">
+        <v>-5</v>
+      </c>
+      <c r="B28" s="59">
+        <v>0.81919884518224395</v>
+      </c>
+      <c r="C28" s="57">
+        <v>297</v>
+      </c>
+      <c r="D28" s="57">
+        <v>1659</v>
+      </c>
+      <c r="E28" s="57">
+        <v>345</v>
+      </c>
+      <c r="F28" s="57">
+        <v>4540</v>
+      </c>
+      <c r="G28" s="59">
+        <f>(C28+F28)/SUM(C28:F28)</f>
+        <v>0.70706037129074695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="71">
+        <v>0</v>
+      </c>
+      <c r="B29" s="59">
+        <v>0.82325626390635498</v>
+      </c>
+      <c r="C29" s="57">
+        <v>725</v>
+      </c>
+      <c r="D29" s="57">
+        <v>1249</v>
+      </c>
+      <c r="E29" s="57">
+        <v>578</v>
+      </c>
+      <c r="F29" s="57">
+        <v>4255</v>
+      </c>
+      <c r="G29" s="59">
+        <f t="shared" ref="G29:G33" si="1">(C29+F29)/SUM(C29:F29)</f>
+        <v>0.73159982371088583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="71">
+        <v>5</v>
+      </c>
+      <c r="B30" s="59">
+        <v>0.81366982124079901</v>
+      </c>
+      <c r="C30" s="57">
+        <v>1045</v>
+      </c>
+      <c r="D30" s="57">
+        <v>956</v>
+      </c>
+      <c r="E30" s="57">
+        <v>816</v>
+      </c>
+      <c r="F30" s="57">
+        <v>3869</v>
+      </c>
+      <c r="G30" s="59">
+        <f t="shared" si="1"/>
+        <v>0.734968591085851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="71">
+        <v>10</v>
+      </c>
+      <c r="B31" s="59">
+        <v>0.863174531496952</v>
+      </c>
+      <c r="C31" s="57">
+        <v>1420</v>
+      </c>
+      <c r="D31" s="57">
+        <v>573</v>
+      </c>
+      <c r="E31" s="57">
+        <v>639</v>
+      </c>
+      <c r="F31" s="57">
+        <v>3823</v>
+      </c>
+      <c r="G31" s="59">
+        <f t="shared" si="1"/>
+        <v>0.81223857474825711</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="71">
+        <v>15</v>
+      </c>
+      <c r="B32" s="59">
+        <v>0.91050035236081694</v>
+      </c>
+      <c r="C32" s="57">
+        <v>1650</v>
+      </c>
+      <c r="D32" s="57">
+        <v>325</v>
+      </c>
+      <c r="E32" s="57">
+        <v>437</v>
+      </c>
+      <c r="F32" s="57">
+        <v>3876</v>
+      </c>
+      <c r="G32" s="59">
+        <f t="shared" si="1"/>
+        <v>0.87881679389312972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="72">
+        <v>20</v>
+      </c>
+      <c r="B33" s="70">
+        <v>0.994877632327831</v>
+      </c>
+      <c r="C33" s="73">
+        <v>1955</v>
+      </c>
+      <c r="D33" s="73">
+        <v>13</v>
+      </c>
+      <c r="E33" s="73">
+        <v>32</v>
+      </c>
+      <c r="F33" s="73">
+        <v>4370</v>
+      </c>
+      <c r="G33" s="59">
+        <f t="shared" si="1"/>
+        <v>0.99293563579277866</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="65"/>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="71">
+        <v>-5</v>
+      </c>
+      <c r="B39" s="59">
+        <v>0.81661636783241598</v>
+      </c>
+      <c r="C39" s="57">
+        <v>175</v>
+      </c>
+      <c r="D39" s="57">
+        <v>1781</v>
+      </c>
+      <c r="E39" s="57">
+        <v>285</v>
+      </c>
+      <c r="F39" s="57">
+        <v>4600</v>
+      </c>
+      <c r="G39" s="59">
+        <f>(C39+F39)/SUM(C39:F39)</f>
+        <v>0.69799736880573016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="71">
+        <v>0</v>
+      </c>
+      <c r="B40" s="59">
+        <v>0.79030682040257905</v>
+      </c>
+      <c r="C40" s="57">
+        <v>617</v>
+      </c>
+      <c r="D40" s="57">
+        <v>1357</v>
+      </c>
+      <c r="E40" s="57">
+        <v>789</v>
+      </c>
+      <c r="F40" s="57">
+        <v>4044</v>
+      </c>
+      <c r="G40" s="59">
+        <f t="shared" ref="G40:G44" si="2">(C40+F40)/SUM(C40:F40)</f>
+        <v>0.68473630086675485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="71">
+        <v>5</v>
+      </c>
+      <c r="B41" s="59">
+        <v>0.747277676950998</v>
+      </c>
+      <c r="C41" s="57">
+        <v>1164</v>
+      </c>
+      <c r="D41" s="57">
+        <v>837</v>
+      </c>
+      <c r="E41" s="57">
+        <v>1391</v>
+      </c>
+      <c r="F41" s="57">
+        <v>3294</v>
+      </c>
+      <c r="G41" s="59">
+        <f t="shared" si="2"/>
+        <v>0.66676637750523482</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="71">
+        <v>10</v>
+      </c>
+      <c r="B42" s="59">
+        <v>0.81752336448598095</v>
+      </c>
+      <c r="C42" s="57">
+        <v>1394</v>
+      </c>
+      <c r="D42" s="57">
+        <v>599</v>
+      </c>
+      <c r="E42" s="57">
+        <v>963</v>
+      </c>
+      <c r="F42" s="57">
+        <v>3499</v>
+      </c>
+      <c r="G42" s="59">
+        <f t="shared" si="2"/>
+        <v>0.75801704105344692</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="71">
+        <v>15</v>
+      </c>
+      <c r="B43" s="59">
+        <v>0.90428419686061601</v>
+      </c>
+      <c r="C43" s="57">
+        <v>1646</v>
+      </c>
+      <c r="D43" s="57">
+        <v>329</v>
+      </c>
+      <c r="E43" s="57">
+        <v>482</v>
+      </c>
+      <c r="F43" s="57">
+        <v>3831</v>
+      </c>
+      <c r="G43" s="59">
+        <f t="shared" si="2"/>
+        <v>0.87102417302798985</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="72">
+        <v>20</v>
+      </c>
+      <c r="B44" s="70">
+        <v>1</v>
+      </c>
+      <c r="C44" s="73">
+        <v>1968</v>
+      </c>
+      <c r="D44" s="73">
+        <v>0</v>
+      </c>
+      <c r="E44" s="73">
+        <v>0</v>
+      </c>
+      <c r="F44" s="73">
+        <v>4402</v>
+      </c>
+      <c r="G44" s="59">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="65"/>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="75"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="71">
+        <v>-5</v>
+      </c>
+      <c r="B50" s="59">
+        <v>0.71729279345124997</v>
+      </c>
+      <c r="C50" s="76">
+        <v>352</v>
+      </c>
+      <c r="D50" s="76">
+        <v>1604</v>
+      </c>
+      <c r="E50" s="76">
+        <v>330</v>
+      </c>
+      <c r="F50" s="76">
+        <v>4555</v>
+      </c>
+      <c r="G50" s="68"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="71">
+        <v>0</v>
+      </c>
+      <c r="B51" s="59">
+        <v>0.73027765535478184</v>
+      </c>
+      <c r="C51" s="76">
+        <v>830</v>
+      </c>
+      <c r="D51" s="76">
+        <v>1144</v>
+      </c>
+      <c r="E51" s="76">
+        <v>692</v>
+      </c>
+      <c r="F51" s="76">
+        <v>4141</v>
+      </c>
+      <c r="G51" s="68"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="71">
+        <v>5</v>
+      </c>
+      <c r="B52" s="59">
+        <v>0.73900688004786119</v>
+      </c>
+      <c r="C52" s="76">
+        <v>1202</v>
+      </c>
+      <c r="D52" s="76">
+        <v>799</v>
+      </c>
+      <c r="E52" s="76">
+        <v>946</v>
+      </c>
+      <c r="F52" s="76">
+        <v>3739</v>
+      </c>
+      <c r="G52" s="68"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="71">
+        <v>10</v>
+      </c>
+      <c r="B53" s="59">
+        <v>0.8189000774593338</v>
+      </c>
+      <c r="C53" s="76">
+        <v>1503</v>
+      </c>
+      <c r="D53" s="76">
+        <v>490</v>
+      </c>
+      <c r="E53" s="76">
+        <v>679</v>
+      </c>
+      <c r="F53" s="76">
+        <v>3783</v>
+      </c>
+      <c r="G53" s="68"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="71">
+        <v>15</v>
+      </c>
+      <c r="B54" s="59">
+        <v>0.87022900763358779</v>
+      </c>
+      <c r="C54" s="76">
+        <v>1688</v>
+      </c>
+      <c r="D54" s="76">
+        <v>287</v>
+      </c>
+      <c r="E54" s="76">
+        <v>529</v>
+      </c>
+      <c r="F54" s="76">
+        <v>3784</v>
+      </c>
+      <c r="G54" s="68"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="72">
+        <v>20</v>
+      </c>
+      <c r="B55" s="77">
+        <v>0.96436420722135008</v>
+      </c>
+      <c r="C55" s="78">
+        <v>1940</v>
+      </c>
+      <c r="D55" s="78">
+        <v>28</v>
+      </c>
+      <c r="E55" s="78">
+        <v>199</v>
+      </c>
+      <c r="F55" s="78">
+        <v>4203</v>
+      </c>
+      <c r="G55" s="68"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="75"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="65"/>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60" s="75"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="71">
+        <v>-5</v>
+      </c>
+      <c r="B61" s="59">
+        <v>0.57550065779856741</v>
+      </c>
+      <c r="C61" s="76">
+        <v>590</v>
+      </c>
+      <c r="D61" s="76">
+        <v>1366</v>
+      </c>
+      <c r="E61" s="76">
+        <v>1538</v>
+      </c>
+      <c r="F61" s="76">
+        <v>3347</v>
+      </c>
+      <c r="G61" s="68"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="71">
+        <v>0</v>
+      </c>
+      <c r="B62" s="59">
+        <v>0.6068752754517408</v>
+      </c>
+      <c r="C62" s="76">
+        <v>909</v>
+      </c>
+      <c r="D62" s="76">
+        <v>1065</v>
+      </c>
+      <c r="E62" s="76">
+        <v>1611</v>
+      </c>
+      <c r="F62" s="76">
+        <v>3222</v>
+      </c>
+      <c r="G62" s="68"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="71">
+        <v>5</v>
+      </c>
+      <c r="B63" s="59">
+        <v>0.63595572838767578</v>
+      </c>
+      <c r="C63" s="76">
+        <v>1285</v>
+      </c>
+      <c r="D63" s="76">
+        <v>716</v>
+      </c>
+      <c r="E63" s="76">
+        <v>1718</v>
+      </c>
+      <c r="F63" s="76">
+        <v>2967</v>
+      </c>
+      <c r="G63" s="68"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="71">
+        <v>10</v>
+      </c>
+      <c r="B64" s="59">
+        <v>0.77072037180480246</v>
+      </c>
+      <c r="C64" s="76">
+        <v>1480</v>
+      </c>
+      <c r="D64" s="76">
+        <v>513</v>
+      </c>
+      <c r="E64" s="76">
+        <v>967</v>
+      </c>
+      <c r="F64" s="76">
+        <v>3495</v>
+      </c>
+      <c r="G64" s="68"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="71">
+        <v>15</v>
+      </c>
+      <c r="B65" s="59">
+        <v>0.89328880407124678</v>
+      </c>
+      <c r="C65" s="76">
+        <v>1698</v>
+      </c>
+      <c r="D65" s="76">
+        <v>277</v>
+      </c>
+      <c r="E65" s="76">
+        <v>394</v>
+      </c>
+      <c r="F65" s="76">
+        <v>3919</v>
+      </c>
+      <c r="G65" s="68"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="72">
+        <v>20</v>
+      </c>
+      <c r="B66" s="77">
+        <v>1</v>
+      </c>
+      <c r="C66" s="78">
+        <v>1968</v>
+      </c>
+      <c r="D66" s="78">
+        <v>0</v>
+      </c>
+      <c r="E66" s="78">
+        <v>0</v>
+      </c>
+      <c r="F66" s="78">
+        <v>4402</v>
+      </c>
+      <c r="G66" s="68"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A58:G58"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>